--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43770</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43679</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43588</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43497</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43406</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43315</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43217</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43126</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43035</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42944</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42853</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42762</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42671</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>846100</v>
+      </c>
+      <c r="E8" s="3">
         <v>749000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>787100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>739600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>811700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>733500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>810900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>721400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>787800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>710400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>743200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>772700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>710000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>272200</v>
+      </c>
+      <c r="E9" s="3">
         <v>219800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>226500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>217100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>265200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>222300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>246000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>217700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>261000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>210700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>217400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>205900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>254900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>213100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>573900</v>
+      </c>
+      <c r="E10" s="3">
         <v>529200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>560600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>522500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>546500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>511200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>564900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>503700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>526800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>499700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>525800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>494500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>517800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>496900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1005,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>1300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1014,8 +1034,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>767000</v>
+      </c>
+      <c r="E17" s="3">
         <v>685700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>707700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>674500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>735000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>671900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>728100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>658100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>711100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>639500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>660000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>628900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>690000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>634200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E18" s="3">
         <v>63300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>79400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>65100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>76700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>61600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>82800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>63300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>76700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>70900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>83200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>71500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>82700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>75800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,17 +1244,18 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1258,196 +1292,211 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E21" s="3">
         <v>86100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>108400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>92500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>102900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>86500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>108200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>87300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>99400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>92500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>105900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>93300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>104000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>96300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4300</v>
       </c>
       <c r="I22" s="3">
         <v>4300</v>
       </c>
       <c r="J22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3600</v>
       </c>
       <c r="M22" s="3">
         <v>3600</v>
       </c>
       <c r="N22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O22" s="3">
         <v>3400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E23" s="3">
         <v>53800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>75500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>61000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>72500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>57300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>78500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>59700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>73000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>67200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>79700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>79100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>72100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E24" s="3">
         <v>10600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>18100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E26" s="3">
         <v>43200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>65000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>60800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>47200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>60400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>48700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>61600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>46400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>53900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>52700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>48400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E27" s="3">
         <v>43200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>65000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>50400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>60800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>47200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>60400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>48700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>61600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>46400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>53900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>52700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,19 +1692,22 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1654,17 +1715,17 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>29500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,17 +1842,20 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E32" s="3">
         <v>5900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1822,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E33" s="3">
         <v>43200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>65000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>50400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>60800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>47200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>61400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>48700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>91100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>46400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>53900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>46900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>52700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E35" s="3">
         <v>43200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>65000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>50400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>60800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>47200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>61400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>48700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>91100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>46400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>53900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>46900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>52700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43770</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43679</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43588</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43497</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43406</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43315</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43217</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43126</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43035</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42944</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42853</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42762</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42671</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E41" s="3">
         <v>43200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>167600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>169600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>101600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>114700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>174300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>168800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>120200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>161000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>183700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>185700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>125100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,207 +2237,222 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E43" s="3">
         <v>33500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>22400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>18900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>157400</v>
+      </c>
+      <c r="E44" s="3">
         <v>188700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>155000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>152600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>151400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>181600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>156300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>157000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>159600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>191500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>156400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>155500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>155900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>187200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E45" s="3">
         <v>28000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>286100</v>
+      </c>
+      <c r="E46" s="3">
         <v>293400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>242400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>361200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>359100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>325700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>306800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>370100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>373000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>349200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>358900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>378100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>382200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>351500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>79500</v>
+      </c>
+      <c r="E47" s="3">
         <v>83100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>89100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
@@ -2361,8 +2466,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2382,63 +2487,69 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1642400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1651500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1169000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1166400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1162200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1158000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1149100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1126800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1114200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1105800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1098100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1093400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1088600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1084700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>6400</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
+      <c r="E49" s="3">
+        <v>6400</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
@@ -2455,8 +2566,8 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E52" s="3">
         <v>103500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>80800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>67500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>66500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>71500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>71400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>69700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>66900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>63500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>64100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>62900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2136900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2137900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1581200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1595100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1587800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1559600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1527400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1568300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1556900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1521900</v>
       </c>
       <c r="M54" s="3">
         <v>1521900</v>
       </c>
       <c r="N54" s="3">
+        <v>1521900</v>
+      </c>
+      <c r="O54" s="3">
         <v>1535000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1534900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1499100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>123300</v>
+      </c>
+      <c r="E57" s="3">
         <v>145900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>132200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>115300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>117900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>131200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>122300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>104700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>106500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>130100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>118400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>98500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>119000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,110 +2977,119 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>321600</v>
+      </c>
+      <c r="E59" s="3">
         <v>296700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>260300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>248400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>262200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>245100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>242300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>246900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>258600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>245700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>257400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>239800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>259200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>234500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>444900</v>
+      </c>
+      <c r="E60" s="3">
         <v>442700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>392500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>363800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>380100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>376300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>364600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>351600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>365100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>375800</v>
       </c>
       <c r="M60" s="3">
         <v>375800</v>
       </c>
       <c r="N60" s="3">
+        <v>375800</v>
+      </c>
+      <c r="O60" s="3">
         <v>338300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>359600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>353500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E61" s="3">
         <v>485000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>400000</v>
       </c>
       <c r="F61" s="3">
         <v>400000</v>
@@ -2984,55 +3127,61 @@
       <c r="Q61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>602100</v>
+      </c>
+      <c r="E62" s="3">
         <v>604400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>184000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>183300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>179100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>183100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>181000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>176400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>176200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>198400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>201600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>194800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>193500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>198500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1532100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>976500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>947000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>959200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>959400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>945600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>928000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>941300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>974200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>977400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>933100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>953200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>952000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>607400</v>
+      </c>
+      <c r="E72" s="3">
         <v>577500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>561700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>600600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>580300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>549800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>532800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>592100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>572300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>510300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>492800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>552800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>533800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>509000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>629900</v>
+      </c>
+      <c r="E76" s="3">
         <v>605800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>604700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>648000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>628600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>600200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>581800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>640400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>615600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>547700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>544500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>602000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>581700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>547100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43770</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43679</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43588</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43497</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43406</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43315</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43217</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43126</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43035</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42944</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42853</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42762</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42671</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E81" s="3">
         <v>43200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>65000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>50400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>60800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>47200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>61400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>48700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>91100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>46400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>53900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>46900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>52700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E83" s="3">
         <v>28700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>29000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>26200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>24800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>21600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>20500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E89" s="3">
         <v>44800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>110200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>61700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>131200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>59600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>109600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>72500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>110200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>117700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>53600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>114600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>34900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-50300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-75300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-138400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-33100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-36700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-32700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-32100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-102200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-30200</v>
       </c>
       <c r="G96" s="3">
         <v>-30200</v>
       </c>
       <c r="H96" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-30900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-118900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-28800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-28900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-30500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-111800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-27600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-27800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E100" s="3">
         <v>36800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-102500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-30300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-30200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-36000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-119400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-28800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-28900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-48700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-111200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E102" s="3">
         <v>6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-130700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>67900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-59600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>48600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-40800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-22700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>60600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-25700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43770</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43679</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43588</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43497</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43406</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43315</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43217</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43126</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43035</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42944</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42853</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42762</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42671</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>432500</v>
+      </c>
+      <c r="E8" s="3">
         <v>846100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>749000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>787100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>739600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>811700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>733500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>810900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>721400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>787800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>710400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>743200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>772700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>710000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>137100</v>
+      </c>
+      <c r="E9" s="3">
         <v>272200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>219800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>226500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>217100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>265200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>222300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>246000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>217700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>261000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>210700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>217400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>205900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>254900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>213100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>295400</v>
+      </c>
+      <c r="E10" s="3">
         <v>573900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>529200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>560600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>522500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>546500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>511200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>564900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>503700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>526800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>499700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>525800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>494500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>517800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>496900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1037,8 +1057,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>511500</v>
+      </c>
+      <c r="E17" s="3">
         <v>767000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>685700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>707700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>674500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>735000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>671900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>728100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>658100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>711100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>639500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>660000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>628900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>690000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>634200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E18" s="3">
         <v>79100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>63300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>79400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>65100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>76700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>61600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>82800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>63300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>70900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>83200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>71500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>82700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>75800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,20 +1278,21 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-132800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5900</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1295,208 +1329,223 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-181800</v>
+      </c>
+      <c r="E21" s="3">
         <v>105200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>86100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>108400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>92500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>102900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>86500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>108200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>87300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>99400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>92500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>105900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>93300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>104000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>96300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4300</v>
       </c>
       <c r="J22" s="3">
         <v>4300</v>
       </c>
       <c r="K22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3600</v>
       </c>
       <c r="N22" s="3">
         <v>3600</v>
       </c>
       <c r="O22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P22" s="3">
         <v>3400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-217200</v>
+      </c>
+      <c r="E23" s="3">
         <v>72000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>53800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>75500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>61000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>72500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>57300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>78500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>59700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>67200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>79700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>68100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>79100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>72100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="E24" s="3">
         <v>10900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>18100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>25800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-161900</v>
+      </c>
+      <c r="E26" s="3">
         <v>61200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>43200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>65000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>50400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>60800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>47200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>60400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>61600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>46400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>53900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>52700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>48400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-161900</v>
+      </c>
+      <c r="E27" s="3">
         <v>61200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>43200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>65000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>50400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>60800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>47200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>60400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>61600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>46400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>53900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>52700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1706,11 +1767,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1718,17 +1779,17 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>29500</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,20 +1912,23 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>132800</v>
+      </c>
+      <c r="E32" s="3">
         <v>3500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5900</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-161900</v>
+      </c>
+      <c r="E33" s="3">
         <v>61200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>43200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>65000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>50400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>60800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>47200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>61400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>91100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>46400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>53900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>46900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>52700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-161900</v>
+      </c>
+      <c r="E35" s="3">
         <v>61200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>43200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>65000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>50400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>60800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>47200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>61400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>91100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>46400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>53900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>46900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>52700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43770</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43679</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43588</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43497</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43406</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43315</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43217</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43126</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43035</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42944</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42853</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42762</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42671</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>363300</v>
+      </c>
+      <c r="E41" s="3">
         <v>72800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>167600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>169600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>101600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>114700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>174300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>168800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>120200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>161000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>183700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>185700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>125100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,222 +2330,237 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E43" s="3">
         <v>26700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>22200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>18900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>146300</v>
+      </c>
+      <c r="E44" s="3">
         <v>157400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>188700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>155000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>152600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>151400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>181600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>156300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>157000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>159600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>191500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>156400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>155500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>155900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>187200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E45" s="3">
         <v>29200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>557400</v>
+      </c>
+      <c r="E46" s="3">
         <v>286100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>293400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>242400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>361200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>359100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>325700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>306800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>370100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>373000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>349200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>358900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>378100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>382200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>351500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>79500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>83100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>89100</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -2469,8 +2574,8 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1606800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1642400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1651500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1169000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1166400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1162200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1158000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1149100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1126800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1114200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1105800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1098100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1093400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1088600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1084700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2551,8 +2662,8 @@
       <c r="E49" s="3">
         <v>6400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
+      <c r="F49" s="3">
+        <v>6400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -2569,8 +2680,8 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E52" s="3">
         <v>122500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>103500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>80800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>67500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>66500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>71500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>71400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>69700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>66900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>63500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>64100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>62900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2235900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2136900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2137900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1581200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1595100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1587800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1559600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1527400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1568300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1556900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1521900</v>
       </c>
       <c r="N54" s="3">
         <v>1521900</v>
       </c>
       <c r="O54" s="3">
+        <v>1521900</v>
+      </c>
+      <c r="P54" s="3">
         <v>1535000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1534900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1499100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E57" s="3">
         <v>123300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>145900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>132200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>115300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>117900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>131200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>122300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>104700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>106500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>130100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>118400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>98500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>119000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,119 +3114,128 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>265400</v>
+      </c>
+      <c r="E59" s="3">
         <v>321600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>296700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>260300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>248400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>262200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>245100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>242300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>246900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>258600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>245700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>257400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>239800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>259200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>234500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>353400</v>
+      </c>
+      <c r="E60" s="3">
         <v>444900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>442700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>392500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>363800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>380100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>376300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>364600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>351600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>365100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>375800</v>
       </c>
       <c r="N60" s="3">
         <v>375800</v>
       </c>
       <c r="O60" s="3">
+        <v>375800</v>
+      </c>
+      <c r="P60" s="3">
         <v>338300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>359600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>353500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>940000</v>
+      </c>
+      <c r="E61" s="3">
         <v>460000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>485000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>400000</v>
       </c>
       <c r="G61" s="3">
         <v>400000</v>
@@ -3130,58 +3273,64 @@
       <c r="R61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>550200</v>
+      </c>
+      <c r="E62" s="3">
         <v>602100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>604400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>184000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>183300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>179100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>183100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>181000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>176400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>176200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>198400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>201600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>194800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>193500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>198500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1843700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1507000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1532100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>976500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>947000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>959200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>959400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>945600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>928000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>941300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>974200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>977400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>933100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>953200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>952000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>411400</v>
+      </c>
+      <c r="E72" s="3">
         <v>607400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>577500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>561700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>600600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>580300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>549800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>532800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>592100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>572300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>510300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>492800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>552800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>533800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>509000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>392200</v>
+      </c>
+      <c r="E76" s="3">
         <v>629900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>605800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>604700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>648000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>628600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>581800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>640400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>615600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>547700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>544500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>602000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>581700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>547100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43952</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43770</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43679</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43588</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43497</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43406</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43315</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43217</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43126</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43035</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42944</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42853</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42762</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42671</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-161900</v>
+      </c>
+      <c r="E81" s="3">
         <v>61200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>43200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>65000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>50400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>60800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>47200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>61400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>91100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>46400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>53900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>46900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>52700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E83" s="3">
         <v>29600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>28700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>29000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>26200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>24800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>21600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>22700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>21800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>20500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-96800</v>
+      </c>
+      <c r="E89" s="3">
         <v>139200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>44800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>110200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>61700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>131200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>59600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>109600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>72500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>110200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>117700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>53600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>114600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>34900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-50300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-47400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-75300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-138400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-33400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-33100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-36700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-49900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-32700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-30400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-31300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-32100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-102200</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-30200</v>
       </c>
       <c r="H96" s="3">
         <v>-30200</v>
       </c>
       <c r="I96" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-30900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-118900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-28800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-28900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-30500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-111800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-27600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-29600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>413900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-62100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>36800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-102500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-30300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-30200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-36000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-119400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-28800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-48700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-111200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>290500</v>
+      </c>
+      <c r="E102" s="3">
         <v>29600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-130700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>67900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-59600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>48600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-40800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-22700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>60600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-25900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43952</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43770</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43679</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43588</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43497</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43406</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43315</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43217</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43126</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43035</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42944</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42853</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42762</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42671</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>495100</v>
+      </c>
+      <c r="E8" s="3">
         <v>432500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>846100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>749000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>787100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>739600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>811700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>733500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>810900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>721400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>787800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>710400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>743200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>772700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>710000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>150800</v>
+      </c>
+      <c r="E9" s="3">
         <v>137100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>272200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>219800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>226500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>217100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>265200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>222300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>246000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>217700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>261000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>210700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>217400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>205900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>254900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>213100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>344300</v>
+      </c>
+      <c r="E10" s="3">
         <v>295400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>573900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>529200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>560600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>522500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>546500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>511200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>564900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>503700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>526800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>499700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>525800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>494500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>517800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>496900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,22 +1045,25 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-65800</v>
+      </c>
+      <c r="E14" s="3">
         <v>18300</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1060,8 +1080,8 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E17" s="3">
         <v>511500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>767000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>685700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>707700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>674500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>735000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>671900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>728100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>658100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>711100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>639500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>660000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>628900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>690000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>634200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-79000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>79100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>63300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>79400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>65100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>76700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>61600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>82800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>76700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>70900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>83200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>71500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>82700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>75800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,23 +1312,24 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-132800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1332,220 +1366,235 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-181800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>105200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>86100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>108400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>92500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>102900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>86500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>108200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>87300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>99400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>92500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>105900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>93300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>104000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>96300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E22" s="3">
         <v>5300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4300</v>
       </c>
       <c r="K22" s="3">
         <v>4300</v>
       </c>
       <c r="L22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3600</v>
       </c>
       <c r="O22" s="3">
         <v>3600</v>
       </c>
       <c r="P22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-217200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>72000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>53800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>75500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>61000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>72500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>57300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>78500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>59700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>67200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>79700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>68100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>79100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>72100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-55200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-161900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>61200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>43200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>65000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>50400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>60800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>47200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>61600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>53900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>52700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-161900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>61200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>43200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>65000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>50400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>60800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>47200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>46400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>53900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>46900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>52700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,13 +1814,16 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1770,11 +1831,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1782,17 +1843,17 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>29500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,23 +1982,26 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>132800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-161900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>61200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>43200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>65000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>50400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>60800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>47200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>61400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>91100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>46400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>53900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>46900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>52700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-161900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>61200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>43200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>65000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>50400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>60800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>47200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>61400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>91100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>46400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>53900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>46900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>52700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43952</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43770</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43679</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43588</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43497</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43406</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43315</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43217</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43126</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43035</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42944</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42853</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42762</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42671</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E41" s="3">
         <v>363300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>72800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>167600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>169600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>101600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>114700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>174300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>168800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>120200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>161000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>183700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>185700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>125100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,220 +2423,235 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E43" s="3">
         <v>20600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>22200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>18900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E44" s="3">
         <v>146300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>157400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>188700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>155000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>152600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>151400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>181600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>156300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>157000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>159600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>191500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>156400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>155500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>155900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>187200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E45" s="3">
         <v>27200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>643000</v>
+      </c>
+      <c r="E46" s="3">
         <v>557400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>286100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>293400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>242400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>361200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>359100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>325700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>306800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>370100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>373000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>349200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>358900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>378100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>382200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>351500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,16 +2659,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>79500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>83100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>89100</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -2577,8 +2682,8 @@
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2598,66 +2703,72 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1822000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1606800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1642400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1651500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1169000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1166400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1162200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1158000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1149100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1126800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1114200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1105800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1098100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1093400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1088600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1084700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6400</v>
+        <v>25700</v>
       </c>
       <c r="E49" s="3">
         <v>6400</v>
@@ -2665,8 +2776,8 @@
       <c r="F49" s="3">
         <v>6400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+      <c r="G49" s="3">
+        <v>6400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -2683,8 +2794,8 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E52" s="3">
         <v>65300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>122500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>103500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>80800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>67500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>66500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>75900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>71500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>71400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>69700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>66900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>63500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>64100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>62900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2544300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2235900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2136900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2137900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1581200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1595100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1587800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1559600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1527400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1568300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1556900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1521900</v>
       </c>
       <c r="O54" s="3">
         <v>1521900</v>
       </c>
       <c r="P54" s="3">
+        <v>1521900</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1535000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1534900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1499100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,84 +3141,88 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E57" s="3">
         <v>88100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>123300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>145900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>132200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>115300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>117900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>131200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>122300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>104700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>106500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>130100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>118400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>98500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>119000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>39400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3117,128 +3251,137 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>308200</v>
+      </c>
+      <c r="E59" s="3">
         <v>265400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>321600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>296700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>260300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>248400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>262200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>245100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>242300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>246900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>258600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>245700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>257400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>239800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>259200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>234500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>451100</v>
+      </c>
+      <c r="E60" s="3">
         <v>353400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>444900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>442700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>392500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>363800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>380100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>376300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>364600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>351600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>365100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>375800</v>
       </c>
       <c r="O60" s="3">
         <v>375800</v>
       </c>
       <c r="P60" s="3">
+        <v>375800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>338300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>359600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>353500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>910000</v>
+      </c>
+      <c r="E61" s="3">
         <v>940000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>460000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>485000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>400000</v>
       </c>
       <c r="H61" s="3">
         <v>400000</v>
@@ -3276,61 +3419,67 @@
       <c r="S61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>764800</v>
+      </c>
+      <c r="E62" s="3">
         <v>550200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>602100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>604400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>184000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>183300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>179100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>183100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>181000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>176400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>176200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>198400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>201600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>194800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>193500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>198500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2125900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1843700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1507000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1532100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>976500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>947000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>959200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>959400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>945600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>928000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>941300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>974200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>977400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>933100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>953200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>952000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>438500</v>
+      </c>
+      <c r="E72" s="3">
         <v>411400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>607400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>577500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>561700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>600600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>580300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>549800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>532800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>592100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>572300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>510300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>492800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>552800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>533800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>509000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>418400</v>
+      </c>
+      <c r="E76" s="3">
         <v>392200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>629900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>605800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>604700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>648000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>628600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>600200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>581800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>640400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>615600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>547700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>544500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>602000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>581700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>547100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43952</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43770</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43679</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43588</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43497</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43406</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43315</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43217</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43126</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43035</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42944</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42853</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42762</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42671</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-161900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>61200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>43200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>65000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>50400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>60800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>47200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>61400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>91100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>46400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>53900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>46900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>52700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E83" s="3">
         <v>30000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>29600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>28700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>29000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>24800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>22700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>21600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>22700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>21800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>20500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-96800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>139200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>44800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>110200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>61700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>131200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>59600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>109600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>72500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>110200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>38300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>117700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>53600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>114600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>34900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-213700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-50300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-33100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-30600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-28100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-47400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-75300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-138400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-33400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-36700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-49900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-32700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-30400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-26100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-31100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-31300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-32100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-102200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-30200</v>
       </c>
       <c r="I96" s="3">
         <v>-30200</v>
       </c>
       <c r="J96" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-30900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-118900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-28800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-28900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-30500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-111800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-27800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-29600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E100" s="3">
         <v>413900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-62100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>36800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-102500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-30300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-30200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-36000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-119400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-28800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-28900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-48700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-111200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-27500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E102" s="3">
         <v>290500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>29600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-130700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>67900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-59600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>48600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-40800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-22700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>60600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-25900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-25700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,283 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43952</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43770</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43679</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43588</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43497</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43406</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43315</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43217</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43126</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43035</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42944</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42853</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42762</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42671</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>677200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>646500</v>
+      </c>
+      <c r="F8" s="3">
         <v>495100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>432500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>846100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>749000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>787100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>739600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>811700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>733500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>810900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>721400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>787800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>710400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>743200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>700400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>772700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>710000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>225100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>199000</v>
+      </c>
+      <c r="F9" s="3">
         <v>150800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>137100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>272200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>219800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>226500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>217100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>265200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>222300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>246000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>217700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>261000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>210700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>217400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>205900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>254900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>213100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>452100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>447500</v>
+      </c>
+      <c r="F10" s="3">
         <v>344300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>295400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>573900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>529200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>560600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>522500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>546500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>511200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>564900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>503700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>526800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>499700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>525800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>494500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>517800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>496900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,29 +1082,35 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-217700</v>
+      </c>
+      <c r="F14" s="3">
         <v>-65800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>18300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1083,11 +1123,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>662800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>409300</v>
+      </c>
+      <c r="F17" s="3">
         <v>455000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>511500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>767000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>685700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>707700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>674500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>735000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>671900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>728100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>658100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>711100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>639500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>660000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>628900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>690000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>634200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>237200</v>
+      </c>
+      <c r="F18" s="3">
         <v>40100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-79000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>79100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>63300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>79400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>65100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>76700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>61600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>82800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>63300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>76700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>70900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>83200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>71500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>82700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>75800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,20 +1390,20 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-132800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-3500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-5900</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1369,232 +1437,262 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>263500</v>
+      </c>
+      <c r="F21" s="3">
         <v>70000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-181800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>105200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>86100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>108400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>92500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>102900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>86500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>108200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>87300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>99400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>92500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>105900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>93300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>104000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>96300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F22" s="3">
         <v>9900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>5300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>3600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>4100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3700</v>
       </c>
       <c r="O22" s="3">
         <v>3600</v>
       </c>
       <c r="P22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3400</v>
       </c>
       <c r="R22" s="3">
         <v>3600</v>
       </c>
       <c r="S22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U22" s="3">
         <v>3700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>226400</v>
+      </c>
+      <c r="F23" s="3">
         <v>30100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-217200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>72000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>53800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>75500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>61000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>72500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>57300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>78500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>59700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>73000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>67200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>79700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>68100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>79100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>72100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>55700</v>
+      </c>
+      <c r="F24" s="3">
         <v>5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-55200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>10900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>10500</v>
       </c>
       <c r="I24" s="3">
         <v>10600</v>
       </c>
       <c r="J24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L24" s="3">
         <v>11800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>10100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>18100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>11400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>20800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>25800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>21200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>26300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>23700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>170700</v>
+      </c>
+      <c r="F26" s="3">
         <v>25100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-161900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>61200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>43200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>65000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>50400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>60800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>47200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>60400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>48700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>61600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>46400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>53900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>46900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>52700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>48400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>170700</v>
+      </c>
+      <c r="F27" s="3">
         <v>25100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-161900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>61200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>43200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>65000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>50400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>60800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>47200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>60400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>48700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>61600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>46400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>53900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>46900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>52700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>48400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,50 +1933,56 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>1000</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>29500</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,20 +2134,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>132800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>3500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>5900</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>170700</v>
+      </c>
+      <c r="F33" s="3">
         <v>25100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-161900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>61200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>43200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>65000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>50400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>60800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>47200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>61400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>48700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>91100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>46400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>53900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>46900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>52700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>48400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>170700</v>
+      </c>
+      <c r="F35" s="3">
         <v>25100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-161900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>61200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>43200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>65000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>50400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>60800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>47200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>61400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>48700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>91100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>46400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>53900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>46900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>52700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>48400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43952</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43770</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43679</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43588</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43497</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43406</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43315</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43217</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43126</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43035</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42944</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42853</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42762</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42671</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>568800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>597600</v>
+      </c>
+      <c r="F41" s="3">
         <v>437000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>363300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>72800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>43200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>36900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>167600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>169600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>101600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>114700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>174300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>168800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>120200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>161000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>183700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>185700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>125100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,256 +2606,286 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>48900</v>
+      </c>
+      <c r="F43" s="3">
         <v>49000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>20600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>26700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>33500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>32200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>22200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>17000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>21500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>19500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>21300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>24000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>18100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>22400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>19900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>19700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>18900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>134800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>155700</v>
+      </c>
+      <c r="F44" s="3">
         <v>139100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>146300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>157400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>188700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>155000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>152600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>151400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>181600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>156300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>157000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>159600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>191500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>156400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>155500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>155900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>187200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F45" s="3">
         <v>17900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>27200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>29200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>28000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>18300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>18800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>21200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>21000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>16300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>17400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>20600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>19500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>19100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>19000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>21000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>20300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>796800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>824900</v>
+      </c>
+      <c r="F46" s="3">
         <v>643000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>557400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>286100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>293400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>242400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>361200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>359100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>325700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>306800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>370100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>373000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>349200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>358900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>378100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>382200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>351500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>79500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>83100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>89100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2685,11 +2895,11 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2706,84 +2916,96 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1993600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2015900</v>
+      </c>
+      <c r="F48" s="3">
         <v>1822000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1606800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1642400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1651500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1169000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1166400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1162200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1158000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1149100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1126800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1114200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1105800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1098100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1093400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1088600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1084700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E49" s="3">
         <v>25700</v>
       </c>
-      <c r="E49" s="3">
-        <v>6400</v>
-      </c>
       <c r="F49" s="3">
-        <v>6400</v>
+        <v>25700</v>
       </c>
       <c r="G49" s="3">
         <v>6400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
+      <c r="H49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
@@ -2797,11 +3019,11 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3164,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>53700</v>
+      </c>
+      <c r="F52" s="3">
         <v>53600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>65300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>122500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>103500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>80800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>67500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>66500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>75900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>71500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>71400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>69700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>66900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>65000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>63500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>64100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>62900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2872000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2920100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2544300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2235900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2136900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2137900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1581200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1595100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1587800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1559600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1527400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1568300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1556900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1521900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1521900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1535000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1534900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1499100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,75 +3402,83 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>118300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>136100</v>
+      </c>
+      <c r="F57" s="3">
         <v>103500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>88100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>123300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>145900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>132200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>115300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>117900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>131200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>122300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>104700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>106500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>130100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>118400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>98500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>100400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>119000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>39400</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>39400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -3224,11 +3492,11 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3254,140 +3522,158 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>320400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>269200</v>
+      </c>
+      <c r="F59" s="3">
         <v>308200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>265400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>321600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>296700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>260300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>248400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>262200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>245100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>242300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>246900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>258600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>245700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>257400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>239800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>259200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>234500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>438700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>444600</v>
+      </c>
+      <c r="F60" s="3">
         <v>451100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>353400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>444900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>442700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>392500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>363800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>380100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>376300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>364600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>351600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>365100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>375800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>375800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>338300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>359600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>353500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>835000</v>
+      </c>
+      <c r="E61" s="3">
         <v>910000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
+        <v>910000</v>
+      </c>
+      <c r="G61" s="3">
         <v>940000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>460000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>485000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>400000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>400000</v>
       </c>
       <c r="J61" s="3">
         <v>400000</v>
@@ -3422,64 +3708,76 @@
       <c r="T61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>400000</v>
+      </c>
+      <c r="V61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>989700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>973900</v>
+      </c>
+      <c r="F62" s="3">
         <v>764800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>550200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>602100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>604400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>184000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>183300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>179100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>183100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>181000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>176400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>176200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>198400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>201600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>194800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>193500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>198500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3956,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2263400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2328500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2125900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1843700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1507000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1532100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>976500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>947000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>959200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>959400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>945600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>928000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>941300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>974200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>977400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>933100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>953200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>952000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>623100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>609100</v>
+      </c>
+      <c r="F72" s="3">
         <v>438500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>411400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>607400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>577500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>561700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>600600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>580300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>549800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>532800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>592100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>572300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>510300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>492800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>552800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>533800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>509000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>608600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>591600</v>
+      </c>
+      <c r="F76" s="3">
         <v>418400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>392200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>629900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>605800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>604700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>648000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>628600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>600200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>581800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>640400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>615600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>547700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>544500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>602000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>581700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>547100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44225</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44134</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43952</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43770</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43679</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43588</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43497</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43406</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43315</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43217</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43126</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43035</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42944</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42853</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42762</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42671</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>170700</v>
+      </c>
+      <c r="F81" s="3">
         <v>25100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-161900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>61200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>43200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>65000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>50400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>60800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>47200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>61400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>48700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>91100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>46400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>53900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>46900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>52700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>48400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4819,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F83" s="3">
         <v>29900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>30000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>29600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>28700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>29000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>27400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>26200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>24800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>25400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>24000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>22700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>21600</v>
       </c>
       <c r="P83" s="3">
         <v>22700</v>
       </c>
       <c r="Q83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="R83" s="3">
+        <v>22700</v>
+      </c>
+      <c r="S83" s="3">
         <v>21800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>21300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>20500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F89" s="3">
         <v>73800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-96800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>139200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>44800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>110200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>61700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>131200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>59600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>109600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>72500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>110200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>38300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>117700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>53600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>114600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>34900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5277,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-213700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-25300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-30500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-27900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-34400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-33600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-33200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-37100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-50300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-38300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-33100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-30600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-28100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-26800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-26400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5459,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>137100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-7900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-26600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-47400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-75300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-138400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-33400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-33100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-36700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-49900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-38200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-32700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-30400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-27900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-26500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-26100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,55 +5560,61 @@
         <v>-100</v>
       </c>
       <c r="E96" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-31100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-31300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-32100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-102200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-30200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-30200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-30900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-118900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-28800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-28900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-30500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-111800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-27600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-27800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-29600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5793,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="F100" s="3">
         <v>7800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>413900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-62100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>36800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-102500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-30300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-30200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-36000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-119400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-28800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-28900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-48700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-111200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-27600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-27500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-34700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>160600</v>
+      </c>
+      <c r="F102" s="3">
         <v>73700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>290500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>29600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-130700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>67900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-59600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>5500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>48600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-40800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>60600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-25900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-25700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44225</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44134</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43952</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43770</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43679</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43588</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43497</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43406</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43315</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43217</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43126</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43035</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42944</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42853</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42762</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42671</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>713400</v>
+      </c>
+      <c r="E8" s="3">
         <v>677200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>646500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>495100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>432500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>846100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>749000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>787100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>739600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>811700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>733500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>810900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>721400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>787800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>710400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>743200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>772700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>710000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>205400</v>
+      </c>
+      <c r="E9" s="3">
         <v>225100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>199000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>150800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>137100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>272200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>219800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>226500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>217100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>265200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>222300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>246000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>217700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>261000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>210700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>217400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>205900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>254900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>213100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E10" s="3">
         <v>452100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>447500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>344300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>295400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>573900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>529200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>560600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>522500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>546500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>511200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>564900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>503700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>526800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>499700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>525800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>494500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>517800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>496900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1097,23 +1116,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-217700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-65800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1129,8 +1148,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>660900</v>
+      </c>
+      <c r="E17" s="3">
         <v>662800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>409300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>455000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>511500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>767000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>685700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>707700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>674500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>735000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>671900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>728100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>658100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>711100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>639500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>660000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>628900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>690000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>634200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E18" s="3">
         <v>14400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>237200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>40100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-79000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>79100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>63300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>79400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>65100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>61600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>82800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>63300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>70900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>83200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>71500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>82700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>75800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1396,17 +1429,17 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-132800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1443,256 +1476,271 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E21" s="3">
         <v>41800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>263500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>70000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-181800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>105200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>86100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>108400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>92500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>102900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>86500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>108200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>87300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>99400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>92500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>105900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>93300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>104000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>96300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E22" s="3">
         <v>10800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>4100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>4300</v>
       </c>
       <c r="N22" s="3">
         <v>4300</v>
       </c>
       <c r="O22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P22" s="3">
         <v>3600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3600</v>
       </c>
       <c r="R22" s="3">
         <v>3600</v>
       </c>
       <c r="S22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T22" s="3">
         <v>3400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E23" s="3">
         <v>3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>226400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-217200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>72000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>53800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>75500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>61000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>72500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>78500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>59700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>73000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>67200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>79700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>68100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>79100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>72100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>55700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-55200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>26300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E26" s="3">
         <v>14000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>170700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-161900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>61200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>43200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>65000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>47200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>60400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>48700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>61600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>46400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>52700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>48400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E27" s="3">
         <v>14000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>170700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>25100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-161900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>61200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>43200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>65000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>50400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>47200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>60400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>61600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>53900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>46900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>52700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>48400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1950,11 +2010,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1962,11 +2022,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1974,18 +2034,18 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>29500</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2140,17 +2209,17 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>132800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2187,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E33" s="3">
         <v>14000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>170700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-161900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>61200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>43200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>65000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>91100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>46400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>53900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>46900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>52700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>48400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E35" s="3">
         <v>14000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>170700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-161900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>61200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>43200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>65000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>91100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>46400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>53900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>46900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>52700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>48400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44225</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44134</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43952</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43770</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43679</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43588</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43497</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43406</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43315</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43217</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43126</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43035</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42944</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42853</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42762</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42671</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>384600</v>
+      </c>
+      <c r="E41" s="3">
         <v>568800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>597600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>437000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>363300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>72800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>43200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>167600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>169600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>101600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>114700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>174300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>168800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>120200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>161000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>183700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>185700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>125100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2701,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E43" s="3">
         <v>70500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>22200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>18100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>22400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>18900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E44" s="3">
         <v>134800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>155700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>139100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>146300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>157400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>188700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>155000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>152600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>151400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>181600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>156300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>157000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>159600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>191500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>156400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>155500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>155900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>187200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E45" s="3">
         <v>22700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>593900</v>
+      </c>
+      <c r="E46" s="3">
         <v>796800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>824900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>643000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>557400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>286100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>293400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>242400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>361200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>359100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>325700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>306800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>370100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>373000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>349200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>358900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>378100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>382200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>351500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2871,24 +2975,24 @@
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>79500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>83100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>89100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2901,8 +3005,8 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2922,84 +3026,90 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1967500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1993600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2015900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1822000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1606800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1642400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1651500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1169000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1166400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1162200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1158000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1149100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1126800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1114200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1105800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1098100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1093400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1088600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1084700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E49" s="3">
         <v>25800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>25700</v>
       </c>
       <c r="F49" s="3">
         <v>25700</v>
       </c>
       <c r="G49" s="3">
-        <v>6400</v>
+        <v>25700</v>
       </c>
       <c r="H49" s="3">
         <v>6400</v>
@@ -3007,8 +3117,8 @@
       <c r="I49" s="3">
         <v>6400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="J49" s="3">
+        <v>6400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -3025,8 +3135,8 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E52" s="3">
         <v>55900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>53700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>53600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>65300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>122500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>103500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>80800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>66500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>75900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>71500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>69700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>66900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>65000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>63500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>64100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>62900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2642900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2872000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2920100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2544300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2235900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2136900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2137900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1581200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1595100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1587800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1559600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1527400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1568300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1556900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1521900</v>
       </c>
       <c r="R54" s="3">
         <v>1521900</v>
       </c>
       <c r="S54" s="3">
+        <v>1521900</v>
+      </c>
+      <c r="T54" s="3">
         <v>1535000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1534900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1499100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,84 +3533,88 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E57" s="3">
         <v>118300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>136100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>103500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>88100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>123300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>145900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>132200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>115300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>117900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>131200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>122300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>104700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>106500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>130100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>118400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>98500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>119000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>39400</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
         <v>39400</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>39400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -3498,8 +3631,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3528,155 +3661,164 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>335300</v>
+      </c>
+      <c r="E59" s="3">
         <v>320400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>269200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>308200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>265400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>321600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>296700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>260300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>248400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>262200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>245100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>242300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>246900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>258600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>245700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>257400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>239800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>259200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>234500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E60" s="3">
         <v>438700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>444600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>451100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>353400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>444900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>442700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>392500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>363800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>380100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>376300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>364600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>351600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>365100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>375800</v>
       </c>
       <c r="R60" s="3">
         <v>375800</v>
       </c>
       <c r="S60" s="3">
+        <v>375800</v>
+      </c>
+      <c r="T60" s="3">
         <v>338300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>359600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>353500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>575300</v>
+      </c>
+      <c r="E61" s="3">
         <v>835000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>910000</v>
       </c>
       <c r="F61" s="3">
         <v>910000</v>
       </c>
       <c r="G61" s="3">
+        <v>910000</v>
+      </c>
+      <c r="H61" s="3">
         <v>940000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>460000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>485000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>400000</v>
       </c>
       <c r="K61" s="3">
         <v>400000</v>
@@ -3714,70 +3856,76 @@
       <c r="V61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>970500</v>
+      </c>
+      <c r="E62" s="3">
         <v>989700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>973900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>764800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>550200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>602100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>604400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>184000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>183300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>179100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>183100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>181000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>176400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>176200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>198400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>201600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>194800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>193500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>198500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1994800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2263400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2328500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2125900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1843700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1507000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1532100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>976500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>947000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>959200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>959400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>945600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>928000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>941300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>974200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>977400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>933100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>953200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>952000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>656500</v>
+      </c>
+      <c r="E72" s="3">
         <v>623100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>609100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>438500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>411400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>607400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>577500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>561700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>600600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>580300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>549800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>532800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>592100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>572300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>510300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>492800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>552800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>533800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>509000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>648100</v>
+      </c>
+      <c r="E76" s="3">
         <v>608600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>591600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>418400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>392200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>629900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>605800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>604700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>648000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>628600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>581800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>640400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>615600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>547700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>544500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>602000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>581700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>547100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44225</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44134</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43952</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43770</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43679</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43588</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43497</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43406</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43315</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43217</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43126</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43035</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42944</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42853</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42762</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42671</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E81" s="3">
         <v>14000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>170700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-161900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>61200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>43200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>65000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>91100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>46400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>53900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>46900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>52700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>48400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E83" s="3">
         <v>27400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>26400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>29900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>30000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>29600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>28700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>24000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>22700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>21600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>22700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>21800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>20500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>91200</v>
+      </c>
+      <c r="E89" s="3">
         <v>64300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>57000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>73800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-96800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>139200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>44800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>110200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>61700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>131200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>59600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>109600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>110200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>38300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>117700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>53600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>114600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>34900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-213700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-50300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>137100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-47400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-75300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-138400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-33400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-33100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-49900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-30400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-26500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-26100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5560,61 +5793,64 @@
         <v>-100</v>
       </c>
       <c r="E96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-31500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-31100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-31300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-32100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-102200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-30200</v>
       </c>
       <c r="L96" s="3">
         <v>-30200</v>
       </c>
       <c r="M96" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="N96" s="3">
         <v>-30900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-118900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-28800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-30500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-111800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-27600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-27800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-29600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-260600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-75100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-33500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>413900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-62100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>36800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-102500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-30300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-30200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-36000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-119400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-28800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-48700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-111200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-27600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-27500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-34700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-184300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-28800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>160600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>73700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>290500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>29600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-130700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>67900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-59600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>48600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-40800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-22700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>60600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-25900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-25700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44407</v>
+      </c>
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44225</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43952</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43770</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43679</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43588</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43497</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43406</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43315</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43217</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43126</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43035</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42944</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42853</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42762</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42671</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>784900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>784400</v>
+      </c>
+      <c r="F8" s="3">
         <v>713400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>677200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>646500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>495100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>432500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>846100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>749000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>787100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>739600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>811700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>733500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>810900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>721400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>787800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>710400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>743200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>700400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>772700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>710000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>242800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>235800</v>
+      </c>
+      <c r="F9" s="3">
         <v>205400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>225100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>199000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>150800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>137100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>272200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>219800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>226500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>217100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>265200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>222300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>246000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>217700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>261000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>210700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>217400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>205900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>254900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>213100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>542100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>548600</v>
+      </c>
+      <c r="F10" s="3">
         <v>508000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>452100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>447500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>344300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>295400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>573900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>529200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>560600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>522500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>546500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>511200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>564900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>503700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>526800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>499700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>525800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>494500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>517800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>496900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,25 +1159,25 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-217700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-65800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>18300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>1300</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1151,11 +1191,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1172,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>742000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>721700</v>
+      </c>
+      <c r="F17" s="3">
         <v>660900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>662800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>409300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>455000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>511500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>767000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>685700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>707700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>674500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>735000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>671900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>728100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>658100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>711100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>639500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>660000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>628900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>690000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>634200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>62700</v>
+      </c>
+      <c r="F18" s="3">
         <v>52500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>14400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>237200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>40100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-79000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>79100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>63300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>79400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>65100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>76700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>61600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>82800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>63300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>76700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>70900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>83200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>71500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>82700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>75800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1432,20 +1500,20 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-132800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-5900</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1479,268 +1547,298 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>90300</v>
+      </c>
+      <c r="F21" s="3">
         <v>79700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>41800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>263500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>70000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-181800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>105200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>86100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>108400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>92500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>102900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>86500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>108200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>87300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>99400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>92500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>105900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>93300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>104000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>96300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F22" s="3">
         <v>9600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>10800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>10700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>9900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>5300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3700</v>
       </c>
       <c r="R22" s="3">
         <v>3600</v>
       </c>
       <c r="S22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T22" s="3">
         <v>3600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>3400</v>
       </c>
       <c r="U22" s="3">
         <v>3600</v>
       </c>
       <c r="V22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="W22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="X22" s="3">
         <v>3700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>40300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>37700</v>
+      </c>
+      <c r="F23" s="3">
         <v>42900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>226400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>30100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-217200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>72000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>53800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>75500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>61000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>72500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>57300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>78500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>59700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>73000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>67200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>79700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>68100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>79100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>72100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="3">
         <v>9400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-10400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>55700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-55200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>10900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>10600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>10500</v>
       </c>
       <c r="L24" s="3">
         <v>10600</v>
       </c>
       <c r="M24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="O24" s="3">
         <v>11800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>18100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>11400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>20800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>25800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>21200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>26300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>23700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F26" s="3">
         <v>33500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>14000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>170700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>25100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-161900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>61200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>43200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>65000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>50400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>60800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>47200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>60400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>48700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>61600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>46400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>53900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>46900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>52700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>48400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F27" s="3">
         <v>33500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>14000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>170700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>25100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-161900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>61200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>43200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>65000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>50400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>60800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>47200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>60400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>48700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>61600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>46400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>53900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>46900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>52700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>48400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,58 +2115,64 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>1000</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q29" s="3">
-        <v>29500</v>
+        <v>1000</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
+      <c r="S29" s="3">
+        <v>29500</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2212,20 +2352,20 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>132800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>5900</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2259,73 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F33" s="3">
         <v>33500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>14000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>170700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>25100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-161900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>61200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>43200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>65000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>50400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>60800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>47200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>61400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>48700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>91100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>46400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>53900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>46900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>52700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>48400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F35" s="3">
         <v>33500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>14000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>170700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>25100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-161900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>61200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>43200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>65000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>50400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>60800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>47200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>61400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>48700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>91100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>46400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>53900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>46900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>52700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>48400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44407</v>
+      </c>
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44225</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43952</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43770</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43679</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43588</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43497</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43406</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43315</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43217</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43126</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43035</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42944</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42853</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42762</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42671</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2746,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>144600</v>
+      </c>
+      <c r="F41" s="3">
         <v>384600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>568800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>597600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>437000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>363300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>72800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>43200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>36900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>167600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>169600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>101600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>114700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>174300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>168800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>120200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>161000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>183700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>185700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>125100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2884,298 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>48500</v>
+      </c>
+      <c r="F43" s="3">
         <v>54600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>70500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>48900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>49000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>20600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>26700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>33500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>32200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>22200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>17000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>21500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>19500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>21300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>24000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>18100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>22400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>19900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>19700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>18900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>159600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>138300</v>
+      </c>
+      <c r="F44" s="3">
         <v>132400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>134800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>155700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>139100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>146300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>157400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>188700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>155000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>152600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>151400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>181600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>156300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>157000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>159600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>191500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>156400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>155500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>155900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>187200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F45" s="3">
         <v>22300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>22700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>22600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>17900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>27200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>29200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>28000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>18300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>18800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>21200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>21000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>16300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>17400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>20600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>19500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>19100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>19000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>21000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>20300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>357200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>353600</v>
+      </c>
+      <c r="F46" s="3">
         <v>593900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>796800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>824900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>643000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>557400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>286100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>293400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>242400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>361200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>359100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>325700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>306800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>370100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>373000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>349200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>358900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>378100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>382200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>351500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2978,26 +3188,26 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>79500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>83100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>89100</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -3008,11 +3218,11 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3029,102 +3239,114 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1934000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1954300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1967500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1993600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2015900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1822000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1606800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1642400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1651500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1169000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1166400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1162200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1158000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1149100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1126800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1114200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1105800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1098100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1093400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1088600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1084700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F49" s="3">
         <v>26100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>25800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>25700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>25700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>6400</v>
       </c>
       <c r="J49" s="3">
         <v>6400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L49" s="3">
+        <v>6400</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -3138,11 +3360,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3523,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>57800</v>
+      </c>
+      <c r="F52" s="3">
         <v>55500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>55900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>53700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>53600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>65300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>122500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>103500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>80800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>67500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>66500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>75900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>71500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>71400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>69700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>66900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>65000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>63500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>64100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>62900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2372700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2391700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2642900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2872000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2920100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2544300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2235900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2136900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2137900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1581200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1595100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1587800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1559600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1527400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1568300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1556900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1521900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1521900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1535000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1534900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1499100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,93 +3794,101 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>135200</v>
+      </c>
+      <c r="F57" s="3">
         <v>113700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>118300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>136100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>103500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>88100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>123300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>145900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>132200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>115300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>117900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>131200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>122300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>104700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>106500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>130100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>118400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>98500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>100400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>119000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>39400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>39400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3634,11 +3902,11 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3664,167 +3932,185 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>330000</v>
+      </c>
+      <c r="F59" s="3">
         <v>335300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>320400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>269200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>308200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>265400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>321600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>296700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>260300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>248400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>262200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>245100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>242300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>246900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>258600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>245700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>257400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>239800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>259200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>234500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>449600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>465300</v>
+      </c>
+      <c r="F60" s="3">
         <v>449000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>438700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>444600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>451100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>353400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>444900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>442700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>392500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>363800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>380100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>376300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>364600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>351600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>365100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>375800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>375800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>338300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>359600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>353500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>327300</v>
+      </c>
+      <c r="F61" s="3">
         <v>575300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>835000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>910000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>910000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>940000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>460000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>485000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>400000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>400000</v>
       </c>
       <c r="M61" s="3">
         <v>400000</v>
@@ -3859,73 +4145,85 @@
       <c r="W61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>400000</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>916900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>935500</v>
+      </c>
+      <c r="F62" s="3">
         <v>970500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>989700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>973900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>764800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>550200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>602100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>604400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>184000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>183300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>179100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>183100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>181000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>176400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>176200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>198400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>201600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>194800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>193500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>198500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1743500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1728100</v>
+      </c>
+      <c r="F66" s="3">
         <v>1994800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2263400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2328500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2125900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1843700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1507000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1532100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>976500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>947000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>959200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>959400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>945600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>928000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>941300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>974200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>977400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>933100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>953200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>952000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>663400</v>
+      </c>
+      <c r="F72" s="3">
         <v>656500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>623100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>609100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>438500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>411400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>607400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>577500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>561700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>600600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>580300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>549800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>532800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>592100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>572300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>510300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>492800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>552800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>533800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>509000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>629200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>663600</v>
+      </c>
+      <c r="F76" s="3">
         <v>648100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>608600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>591600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>418400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>392200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>629900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>605800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>604700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>648000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>628600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>600200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>581800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>640400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>615600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>547700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>544500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>602000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>581700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>547100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44498</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44407</v>
+      </c>
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44225</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43952</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43770</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43679</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43588</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43497</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43406</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43315</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43217</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43126</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43035</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42944</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42853</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42762</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42671</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F81" s="3">
         <v>33500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>14000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>170700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>25100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-161900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>61200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>43200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>65000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>50400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>60800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>47200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>61400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>48700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>91100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>46400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>53900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>46900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>52700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>48400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5415,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>27700</v>
+      </c>
+      <c r="F83" s="3">
         <v>27200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>27400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>26400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>29900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>30000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>29600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>28700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>29000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>27400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>26200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>24800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>25400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>24000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>22700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>21600</v>
       </c>
       <c r="S83" s="3">
         <v>22700</v>
       </c>
       <c r="T83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="U83" s="3">
+        <v>22700</v>
+      </c>
+      <c r="V83" s="3">
         <v>21800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>21300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>20500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>89400</v>
+      </c>
+      <c r="F89" s="3">
         <v>91200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>64300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>57000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>73800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-96800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>139200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>44800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>110200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>61700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>131200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>59600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>109600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>72500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>110200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>38300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>117700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>53600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>114600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>34900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5939,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-11400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-213700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-25300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-30500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-27900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-34400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-33600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-33200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-37100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-50300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-38300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-33100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-30600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-29300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-28100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-26800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-26400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6148,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-14900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-18000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>137100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-7900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-26600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-47400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-75300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-138400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-33400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-33100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-36700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-49900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-32700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-30400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-29200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-27900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-26500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-26100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6250,81 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-100</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-31500</v>
       </c>
       <c r="G96" s="3">
         <v>-100</v>
       </c>
       <c r="H96" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-31100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-31300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-32100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-102200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-30200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-30200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-30900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-118900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-28900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-30500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-111800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-27600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-27800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-29600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6530,85 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-303400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-260600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-75100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-33500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>7800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>413900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-62100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>36800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-102500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-30300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-30200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-36000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-119400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-28900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-48700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-111200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-27600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-27500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-34700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-240000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-184300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-28800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>160600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>73700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>290500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>29600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-130700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>67900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-59600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>5500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>48600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-40800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-22700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>60600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-25900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-25700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E7" s="2">
         <v>44498</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44407</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44225</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44134</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43952</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43770</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43679</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43588</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43497</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43406</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43315</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43217</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43126</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43035</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42944</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42853</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42762</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42671</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>862300</v>
+      </c>
+      <c r="E8" s="3">
         <v>784900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>784400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>713400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>677200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>646500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>495100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>432500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>846100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>749000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>787100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>739600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>811700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>733500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>810900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>721400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>787800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>710400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>743200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>772700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>710000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>283600</v>
+      </c>
+      <c r="E9" s="3">
         <v>242800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>235800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>205400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>225100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>199000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>150800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>137100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>272200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>219800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>226500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>217100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>265200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>222300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>246000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>217700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>261000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>210700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>217400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>205900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>254900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>213100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>578700</v>
+      </c>
+      <c r="E10" s="3">
         <v>542100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>548600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>508000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>452100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>447500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>344300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>295400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>573900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>529200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>560600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>522500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>546500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>511200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>564900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>503700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>526800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>499700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>525800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>494500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>517800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>496900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1165,22 +1185,22 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-217700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-65800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18300</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1300</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1197,8 +1217,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>815600</v>
+      </c>
+      <c r="E17" s="3">
         <v>742000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>721700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>660900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>662800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>409300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>455000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>511500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>767000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>685700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>707700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>674500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>735000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>671900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>728100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>658100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>711100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>639500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>660000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>628900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>690000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>634200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E18" s="3">
         <v>42900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>62700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>52500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>237200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>40100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-79000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>79100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>79400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>65100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>76700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>61600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>82800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>63300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>76700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>70900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>83200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>71500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>82700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>75800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1506,17 +1540,17 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-132800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5900</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1553,292 +1587,307 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E21" s="3">
         <v>68700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>90300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>79700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>263500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>70000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-181800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>105200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>86100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>108400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>92500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>102900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>86500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>108200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>87300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>99400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>92500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>105900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>93300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>104000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>96300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>4300</v>
       </c>
       <c r="Q22" s="3">
         <v>4300</v>
       </c>
       <c r="R22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S22" s="3">
         <v>3600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3700</v>
-      </c>
-      <c r="T22" s="3">
-        <v>3600</v>
       </c>
       <c r="U22" s="3">
         <v>3600</v>
       </c>
       <c r="V22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W22" s="3">
         <v>3400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E23" s="3">
         <v>40300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>226400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>30100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-217200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>72000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>75500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>61000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>72500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>78500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>59700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>73000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>67200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>79700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>68100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>79100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>72100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E24" s="3">
         <v>6900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-10400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-55200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>25800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>26300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>23700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E26" s="3">
         <v>33400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>170700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-161900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>61200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>43200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>65000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>50400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>60800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>47200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>48700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>61600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>53900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>46900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>52700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>48400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E27" s="3">
         <v>33400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>170700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>25100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-161900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>61200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>65000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>50400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>61600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>46400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>53900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>46900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>52700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>48400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2147,17 +2208,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2165,17 +2226,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>29500</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2358,17 +2428,17 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>132800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5900</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2475,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E33" s="3">
         <v>33400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>170700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-161900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>61200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>65000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>50400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>61400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>48700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>91100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>46400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>53900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>46900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>52700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>48400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E35" s="3">
         <v>33400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>170700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-161900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>61200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>65000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>50400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>61400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>48700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>91100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>46400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>53900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>46900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>52700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>48400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E38" s="2">
         <v>44498</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44407</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44225</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44134</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43952</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43770</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43679</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43588</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43497</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43406</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43315</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43217</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43126</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43035</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42944</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42853</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42762</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42671</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E41" s="3">
         <v>125900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>384600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>568800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>597600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>437000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>363300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>72800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>43200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>167600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>169600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>101600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>114700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>174300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>168800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>120200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>161000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>183700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>185700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>125100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,309 +2980,324 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E43" s="3">
         <v>44900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>70500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>48900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>22200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>21500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>24000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>18100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>22400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>19900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>18900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E44" s="3">
         <v>159600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>138300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>132400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>134800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>155700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>139100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>146300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>157400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>188700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>155000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>152600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>151400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>181600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>156300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>157000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>159600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>191500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>156400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>155500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>155900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>187200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E45" s="3">
         <v>26800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>17900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>17400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>20300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>306600</v>
+      </c>
+      <c r="E46" s="3">
         <v>357200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>353600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>593900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>796800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>824900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>643000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>557400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>286100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>293400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>242400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>361200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>359100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>325700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>306800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>370100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>373000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>349200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>358900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>378100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>382200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>351500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -3201,16 +3306,16 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>79500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>83100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>89100</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -3224,8 +3329,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3245,102 +3350,108 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1913600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1934000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1954300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1967500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1993600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2015900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1822000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1606800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1642400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1651500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1169000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1166400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1162200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1158000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1149100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1126800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1114200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1105800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1098100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1093400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1088600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1084700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="E49" s="3">
         <v>26000</v>
       </c>
       <c r="F49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="G49" s="3">
         <v>26100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>25800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>25700</v>
       </c>
       <c r="I49" s="3">
         <v>25700</v>
       </c>
       <c r="J49" s="3">
-        <v>6400</v>
+        <v>25700</v>
       </c>
       <c r="K49" s="3">
         <v>6400</v>
@@ -3348,8 +3459,8 @@
       <c r="L49" s="3">
         <v>6400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>6400</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -3366,8 +3477,8 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E52" s="3">
         <v>55600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>57800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>55500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>55900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>53700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>65300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>122500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>103500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>80800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>67500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>66500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>75900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>71400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>69700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>66900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>65000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>63500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>64100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>62900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2302400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2372700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2391700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2642900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2872000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2920100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2544300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2235900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2136900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2137900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1581200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1595100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1587800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1559600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1527400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1568300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1556900</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1521900</v>
       </c>
       <c r="U54" s="3">
         <v>1521900</v>
       </c>
       <c r="V54" s="3">
+        <v>1521900</v>
+      </c>
+      <c r="W54" s="3">
         <v>1535000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1534900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1499100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,102 +3926,106 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E57" s="3">
         <v>138200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>135200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>113700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>118300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>136100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>103500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>88100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>123300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>145900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>132200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>115300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>117900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>131200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>122300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>104700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>106500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>130100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>118400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>98500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>100400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>119000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>39400</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3">
         <v>39400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>39400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3908,8 +4042,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3938,182 +4072,191 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>354900</v>
+      </c>
+      <c r="E59" s="3">
         <v>311400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>330000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>335300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>320400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>269200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>308200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>265400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>321600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>296700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>260300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>248400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>262200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>245100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>242300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>246900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>258600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>245700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>257400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>239800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>259200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>234500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>478900</v>
+      </c>
+      <c r="E60" s="3">
         <v>449600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>465300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>449000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>438700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>444600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>451100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>353400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>444900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>442700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>392500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>363800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>380100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>376300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>364600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>351600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>365100</v>
-      </c>
-      <c r="T60" s="3">
-        <v>375800</v>
       </c>
       <c r="U60" s="3">
         <v>375800</v>
       </c>
       <c r="V60" s="3">
+        <v>375800</v>
+      </c>
+      <c r="W60" s="3">
         <v>338300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>359600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>353500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>327400</v>
+      </c>
+      <c r="E61" s="3">
         <v>377000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>327300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>575300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>835000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>910000</v>
       </c>
       <c r="I61" s="3">
         <v>910000</v>
       </c>
       <c r="J61" s="3">
+        <v>910000</v>
+      </c>
+      <c r="K61" s="3">
         <v>940000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>460000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>485000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>400000</v>
       </c>
       <c r="N61" s="3">
         <v>400000</v>
@@ -4151,79 +4294,85 @@
       <c r="Y61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>892100</v>
+      </c>
+      <c r="E62" s="3">
         <v>916900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>935500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>970500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>989700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>973900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>764800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>550200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>602100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>604400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>184000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>183300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>179100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>183100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>181000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>176400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>176200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>198400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>201600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>194800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>193500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>198500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1698300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1743500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1728100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1994800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2263400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2328500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2125900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1843700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1507000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1532100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>976500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>947000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>959200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>959400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>945600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>928000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>941300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>974200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>977400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>933100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>953200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>952000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>603900</v>
+      </c>
+      <c r="E72" s="3">
         <v>629000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>663400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>656500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>623100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>609100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>438500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>411400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>607400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>577500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>561700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>600600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>580300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>549800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>532800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>592100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>572300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>510300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>492800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>552800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>533800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>509000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>604100</v>
+      </c>
+      <c r="E76" s="3">
         <v>629200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>663600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>648100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>608600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>591600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>418400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>392200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>629900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>605800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>604700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>648000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>628600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>600200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>581800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>640400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>615600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>547700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>544500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>602000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>581700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>547100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44589</v>
+      </c>
+      <c r="E80" s="2">
         <v>44498</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44407</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44225</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44134</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43952</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43770</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43679</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43588</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43497</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43406</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43315</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43217</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43126</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43035</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42944</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42853</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42762</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42671</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E81" s="3">
         <v>33400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>170700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-161900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>61200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>65000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>50400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>61400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>48700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>91100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>46400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>53900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>46900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>52700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>48400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E83" s="3">
         <v>25800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>26400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>26200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>24800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>25400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>24000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>22700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>21600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>22700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>20500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>84800</v>
+      </c>
+      <c r="E89" s="3">
         <v>23000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>89400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>91200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>64300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>57000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>73800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-96800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>139200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>44800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>110200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>61700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>131200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>59600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>109600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>72500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>110200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>38300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>117700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>53600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>114600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>34900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-11400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-213700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-50300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-33100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-28100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>137100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-47400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-75300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-138400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-33400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-49900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-32700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-30400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-29200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-27900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-26500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-26100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,79 +6485,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-23900</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-100</v>
       </c>
       <c r="H96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-31500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-31100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-31300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-32100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-102200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-30200</v>
       </c>
       <c r="O96" s="3">
         <v>-30200</v>
       </c>
       <c r="P96" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-30900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-118900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-28800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-28900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-30500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-111800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-27600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-27800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-29600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-115200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-303400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-260600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-75100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-33500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>413900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-62100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>36800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-102500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-30300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-30200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-119400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-28800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-48700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-111200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-27600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-27500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-34700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-240000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-184300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-28800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>160600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>73700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>290500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-130700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>67900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-59600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>48600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-40800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-22700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>60600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-25900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-25700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,346 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E7" s="2">
         <v>44589</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44407</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44225</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44134</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43952</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43770</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43679</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43588</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43497</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43406</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43315</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43217</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43126</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43035</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42944</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42853</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42762</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42671</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>790200</v>
+      </c>
+      <c r="E8" s="3">
         <v>862300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>784900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>784400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>713400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>677200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>646500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>495100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>432500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>846100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>749000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>787100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>739600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>811700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>733500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>810900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>721400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>787800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>710400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>743200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>700400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>772700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>710000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E9" s="3">
         <v>283600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>242800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>235800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>205400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>225100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>199000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>150800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>137100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>272200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>219800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>226500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>217100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>265200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>222300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>246000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>217700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>261000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>210700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>217400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>205900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>254900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>213100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>540200</v>
+      </c>
+      <c r="E10" s="3">
         <v>578700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>542100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>548600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>508000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>452100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>447500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>344300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>295400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>573900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>529200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>560600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>522500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>546500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>511200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>564900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>503700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>526800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>499700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>525800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>494500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>517800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>496900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1188,22 +1207,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-217700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-65800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18300</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1220,8 +1239,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>759700</v>
+      </c>
+      <c r="E17" s="3">
         <v>815600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>742000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>721700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>660900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>662800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>409300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>455000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>511500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>767000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>685700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>707700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>674500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>735000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>671900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>728100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>658100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>711100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>639500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>660000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>628900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>690000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>634200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E18" s="3">
         <v>46700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>62700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>52500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>237200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>40100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-79000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>79100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>63300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>79400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>65100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>76700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>61600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>82800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>63300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>70900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>83200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>71500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>82700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>75800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1543,17 +1576,17 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-132800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5900</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1590,82 +1623,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E21" s="3">
         <v>72200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>90300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>79700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>263500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>70000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-181800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>105200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>86100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>108400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>92500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>102900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>86500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>108200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>87300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>99400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>92500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>105900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>93300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>104000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>96300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1673,221 +1712,230 @@
         <v>2200</v>
       </c>
       <c r="E22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F22" s="3">
         <v>2600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>9900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>4300</v>
       </c>
       <c r="R22" s="3">
         <v>4300</v>
       </c>
       <c r="S22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T22" s="3">
         <v>3600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3700</v>
-      </c>
-      <c r="U22" s="3">
-        <v>3600</v>
       </c>
       <c r="V22" s="3">
         <v>3600</v>
       </c>
       <c r="W22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="X22" s="3">
         <v>3400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E23" s="3">
         <v>44500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>40300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>42900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>226400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>30100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-217200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>72000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>75500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>61000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>72500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>57300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>78500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>59700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>73000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>67200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>79700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>68100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>79100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>72100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>6800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-10400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-55200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>25800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>26300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>23700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E26" s="3">
         <v>37600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>33400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>33500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>170700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>25100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-161900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>61200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>65000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>50400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>60400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>48700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>61600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>46400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>53900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>46900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>52700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>48400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E27" s="3">
         <v>37600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>33400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>33500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>170700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>25100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-161900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>61200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>65000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>50400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>47200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>60400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>61600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>46400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>53900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>46900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>52700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>48400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2211,17 +2271,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2229,17 +2289,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>29500</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2431,17 +2500,17 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>132800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5900</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2478,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E33" s="3">
         <v>37600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>33400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>33500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>170700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-161900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>61200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>65000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>50400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>47200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>61400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>48700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>91100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>46400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>53900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>46900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>52700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>48400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E35" s="3">
         <v>37600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>33400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>33500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>170700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-161900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>61200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>65000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>50400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>47200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>61400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>48700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>91100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>46400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>53900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>46900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>52700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>48400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E38" s="2">
         <v>44589</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44498</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44407</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44225</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44134</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43952</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43770</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43679</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43588</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43497</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43406</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43315</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43217</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43126</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43035</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42944</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42853</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42762</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42671</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E41" s="3">
         <v>79700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>125900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>144600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>384600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>568800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>597600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>437000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>363300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>72800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>43200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>167600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>169600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>101600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>114700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>174300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>168800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>120200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>161000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>183700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>185700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>125100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,304 +3072,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E43" s="3">
         <v>44600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>54600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>70500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>48900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>20600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>32200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>22200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>21500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>21300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>24000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>18100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>22400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>18900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>192400</v>
+      </c>
+      <c r="E44" s="3">
         <v>153900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>159600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>138300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>132400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>134800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>155700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>139100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>146300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>157400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>188700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>155000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>152600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>151400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>181600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>156300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>157000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>159600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>191500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>156400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>155500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>155900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>187200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E45" s="3">
         <v>28400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>17900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>17400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>19500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>20300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>294100</v>
+      </c>
+      <c r="E46" s="3">
         <v>306600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>357200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>353600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>593900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>796800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>824900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>643000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>557400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>286100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>293400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>242400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>361200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>359100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>325700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>306800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>370100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>373000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>349200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>358900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>378100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>382200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>351500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3309,16 +3413,16 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>79500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>83100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>89100</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -3332,8 +3436,8 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3353,82 +3457,88 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1905700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1913600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1934000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1954300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1967500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1993600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2015900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1822000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1606800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1642400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1651500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1169000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1166400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1162200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1158000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1149100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1126800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1114200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1105800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1098100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1093400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1088600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1084700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3436,25 +3546,25 @@
         <v>25900</v>
       </c>
       <c r="E49" s="3">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="F49" s="3">
         <v>26000</v>
       </c>
       <c r="G49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="H49" s="3">
         <v>26100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>25800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>25700</v>
       </c>
       <c r="J49" s="3">
         <v>25700</v>
       </c>
       <c r="K49" s="3">
-        <v>6400</v>
+        <v>25700</v>
       </c>
       <c r="L49" s="3">
         <v>6400</v>
@@ -3462,8 +3572,8 @@
       <c r="M49" s="3">
         <v>6400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>6400</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -3480,8 +3590,8 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E52" s="3">
         <v>56200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>55600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>57800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>55500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>55900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>53700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>65300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>122500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>103500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>80800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>67500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>66500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>75900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>71500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>71400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>69700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>66900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>65000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>63500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>64100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>62900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2279100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2302400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2372700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2391700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2642900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2872000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2920100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2544300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2235900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2136900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2137900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1581200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1595100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1587800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1559600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1527400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1568300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1556900</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1521900</v>
       </c>
       <c r="V54" s="3">
         <v>1521900</v>
       </c>
       <c r="W54" s="3">
+        <v>1521900</v>
+      </c>
+      <c r="X54" s="3">
         <v>1535000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1534900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1499100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E57" s="3">
         <v>123900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>138200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>135200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>113700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>118300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>136100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>103500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>88100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>123300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>145900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>132200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>115300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>117900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>131200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>122300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>104700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>106500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>130100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>118400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>98500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>100400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>119000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4012,23 +4145,23 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>39400</v>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J58" s="3">
         <v>39400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>39400</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -4045,8 +4178,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4075,191 +4208,200 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>340200</v>
+      </c>
+      <c r="E59" s="3">
         <v>354900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>311400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>330000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>335300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>320400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>269200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>308200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>265400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>321600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>296700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>260300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>248400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>262200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>245100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>242300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>246900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>258600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>245700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>257400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>239800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>259200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>234500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>465600</v>
+      </c>
+      <c r="E60" s="3">
         <v>478900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>449600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>465300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>449000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>438700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>444600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>451100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>353400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>444900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>442700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>392500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>363800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>380100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>376300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>364600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>351600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>365100</v>
-      </c>
-      <c r="U60" s="3">
-        <v>375800</v>
       </c>
       <c r="V60" s="3">
         <v>375800</v>
       </c>
       <c r="W60" s="3">
+        <v>375800</v>
+      </c>
+      <c r="X60" s="3">
         <v>338300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>359600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>353500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>372900</v>
+      </c>
+      <c r="E61" s="3">
         <v>327400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>377000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>327300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>575300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>835000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>910000</v>
       </c>
       <c r="J61" s="3">
         <v>910000</v>
       </c>
       <c r="K61" s="3">
+        <v>910000</v>
+      </c>
+      <c r="L61" s="3">
         <v>940000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>460000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>485000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>400000</v>
       </c>
       <c r="O61" s="3">
         <v>400000</v>
@@ -4297,82 +4439,88 @@
       <c r="Z61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>876400</v>
+      </c>
+      <c r="E62" s="3">
         <v>892100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>916900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>935500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>970500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>989700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>973900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>764800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>550200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>602100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>604400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>184000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>183300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>179100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>183100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>181000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>176400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>176200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>198400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>201600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>194800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>193500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>198500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1714900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1698300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1743500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1728100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1994800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2263400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2328500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2125900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1843700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1507000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1532100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>976500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>947000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>959200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>959400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>945600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>928000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>941300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>974200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>977400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>933100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>953200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>952000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>564000</v>
+      </c>
+      <c r="E72" s="3">
         <v>603900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>629000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>663400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>656500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>623100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>609100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>438500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>411400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>607400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>577500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>561700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>600600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>580300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>549800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>532800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>592100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>572300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>510300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>492800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>552800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>533800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>509000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>564200</v>
+      </c>
+      <c r="E76" s="3">
         <v>604100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>629200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>663600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>648100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>608600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>591600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>418400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>392200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>629900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>605800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>604700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>648000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>628600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>581800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>640400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>615600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>547700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>544500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>602000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>581700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>547100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44680</v>
+      </c>
+      <c r="E80" s="2">
         <v>44589</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44498</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44407</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44225</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44134</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43952</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43770</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43679</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43588</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43497</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43406</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43315</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43217</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43126</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43035</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42944</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42853</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42762</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42671</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E81" s="3">
         <v>37600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>33400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>33500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>170700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-161900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>61200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>65000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>50400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>47200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>61400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>48700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>91100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>46400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>53900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>46900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>52700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>48400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E83" s="3">
         <v>25600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>30000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>24800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>25400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>24000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>22700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>21600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>22700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>21800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>20500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>84800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>23000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>89400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>91200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>64300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>57000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>73800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-96800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>139200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>44800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>110200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>61700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>131200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>59600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>109600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>72500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>110200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>38300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>117700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>53600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>114600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>34900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-213700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-50300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-33100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-29300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-28100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-26800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-26400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>137100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-47400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-75300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-138400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-36700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-49900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-38200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-32700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-30400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-27900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-26500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-26100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-30700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-23900</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-100</v>
       </c>
       <c r="I96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-31500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-31100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-31300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-32100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-102200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-30200</v>
       </c>
       <c r="P96" s="3">
         <v>-30200</v>
       </c>
       <c r="Q96" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="R96" s="3">
         <v>-30900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-118900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-28800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-28900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-30500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-111800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-27600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-27800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-29600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-115200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-303400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-260600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-75100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-33500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>413900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-62100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>36800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-102500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-30300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-36000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-119400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-28800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-28900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-48700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-111200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-27600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-27500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-34700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-46200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-240000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-184300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-28800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>160600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>73700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>290500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-130700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>67900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-59600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>48600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-40800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-22700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>60600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-25900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-25700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E7" s="2">
         <v>44680</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44589</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44498</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44407</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44225</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44134</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43952</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43770</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43679</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43588</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43497</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43406</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43315</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43217</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43126</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43035</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42944</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42853</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42762</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42671</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>830400</v>
+      </c>
+      <c r="E8" s="3">
         <v>790200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>862300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>784900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>784400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>713400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>677200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>646500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>495100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>432500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>846100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>749000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>787100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>739600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>811700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>733500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>810900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>721400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>787800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>710400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>743200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>700400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>772700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>710000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>273400</v>
+      </c>
+      <c r="E9" s="3">
         <v>250000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>283600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>242800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>235800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>205400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>225100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>199000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>150800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>137100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>272200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>219800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>226500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>217100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>265200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>222300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>246000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>217700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>261000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>210700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>217400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>205900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>254900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>213100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E10" s="3">
         <v>540200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>578700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>542100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>548600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>508000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>452100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>447500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>344300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>295400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>573900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>529200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>560600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>522500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>546500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>511200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>564900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>503700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>526800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>499700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>525800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>494500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>517800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>496900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1210,22 +1230,22 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-217700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-65800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18300</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1242,8 +1262,8 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>797400</v>
+      </c>
+      <c r="E17" s="3">
         <v>759700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>815600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>742000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>721700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>660900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>662800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>409300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>455000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>511500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>767000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>685700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>707700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>674500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>735000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>671900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>728100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>658100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>711100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>639500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>660000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>628900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>690000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>634200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E18" s="3">
         <v>30500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>46700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>62700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>52500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>237200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>40100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-79000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>79100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>79400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>65100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>76700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>61600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>82800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>63300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>76700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>70900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>83200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>71500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>82700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>75800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1579,17 +1613,17 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-132800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5900</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1626,316 +1660,331 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E21" s="3">
         <v>56400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>72200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>68700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>90300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>79700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>41800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>263500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>70000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-181800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>105200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>86100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>108400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>92500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>102900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>86500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>108200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>87300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>99400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>92500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>105900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>93300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>104000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>96300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="E22" s="3">
         <v>2200</v>
       </c>
       <c r="F22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G22" s="3">
         <v>2600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>4300</v>
       </c>
       <c r="S22" s="3">
         <v>4300</v>
       </c>
       <c r="T22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U22" s="3">
         <v>3600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>3600</v>
       </c>
       <c r="W22" s="3">
         <v>3600</v>
       </c>
       <c r="X22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Y22" s="3">
         <v>3400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>3700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E23" s="3">
         <v>28300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>40300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>42900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>226400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-217200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>72000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>75500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>61000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>72500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>57300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>78500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>59700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>73000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>67200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>79700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>68100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>79100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>72100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-10400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>55700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-55200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>25800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>26300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E26" s="3">
         <v>27500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>33500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>170700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-161900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>61200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>43200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>65000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>50400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>60400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>48700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>61600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>46400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>53900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>46900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>52700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>48400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E27" s="3">
         <v>27500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>37600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>33500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>170700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-161900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>43200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>65000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>50400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>47200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>60400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>61600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>46400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>53900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>46900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>52700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>48400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2274,17 +2335,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2292,17 +2353,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>1000</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>29500</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2503,17 +2573,17 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>132800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5900</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E33" s="3">
         <v>27500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>37600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>33500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>170700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-161900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>61200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>65000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>50400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>47200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>61400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>48700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>91100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>46400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>53900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>46900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>52700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>48400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E35" s="3">
         <v>27500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>37600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>33500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>170700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-161900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>61200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>65000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>50400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>47200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>61400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>48700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>91100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>46400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>53900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>46900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>52700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>48400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E38" s="2">
         <v>44680</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44589</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44498</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44407</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44225</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44134</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43952</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43770</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43679</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43588</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43497</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43406</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43315</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43217</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43126</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43035</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42944</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42853</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42762</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42671</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E41" s="3">
         <v>24800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>79700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>384600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>568800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>597600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>437000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>363300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>72800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>36900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>167600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>169600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>101600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>114700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>174300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>168800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>120200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>161000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>183700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>185700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>125100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,316 +3165,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E43" s="3">
         <v>52000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>48500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>54600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>70500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>49000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>20600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>32200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>22200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>21500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>19500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>21300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>24000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>18100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>22400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>19700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>18900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>213200</v>
+      </c>
+      <c r="E44" s="3">
         <v>192400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>153900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>159600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>138300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>132400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>134800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>155700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>139100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>146300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>157400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>188700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>155000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>152600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>151400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>181600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>156300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>157000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>159600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>191500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>156400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>155500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>155900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>187200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E45" s="3">
         <v>24900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>17400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>20600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>21000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>20300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>317300</v>
+      </c>
+      <c r="E46" s="3">
         <v>294100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>306600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>357200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>353600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>593900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>796800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>824900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>643000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>557400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>286100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>293400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>242400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>361200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>359100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>325700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>306800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>370100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>373000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>349200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>358900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>378100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>382200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>351500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3416,16 +3521,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>79500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>83100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>89100</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3439,8 +3544,8 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3460,85 +3565,91 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1903100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1905700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1913600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1934000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1954300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1967500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1993600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2015900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1822000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1606800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1642400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1651500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1169000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1166400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1162200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1158000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1149100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1126800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1114200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1105800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1098100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1093400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1088600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1084700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3549,25 +3660,25 @@
         <v>25900</v>
       </c>
       <c r="F49" s="3">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="G49" s="3">
         <v>26000</v>
       </c>
       <c r="H49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I49" s="3">
         <v>26100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>25800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>25700</v>
       </c>
       <c r="K49" s="3">
         <v>25700</v>
       </c>
       <c r="L49" s="3">
-        <v>6400</v>
+        <v>25700</v>
       </c>
       <c r="M49" s="3">
         <v>6400</v>
@@ -3575,8 +3686,8 @@
       <c r="N49" s="3">
         <v>6400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="O49" s="3">
+        <v>6400</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -3593,8 +3704,8 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="U49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E52" s="3">
         <v>53400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>56200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>55600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>57800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>55500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>53700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>53600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>65300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>122500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>103500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>80800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>66500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>75900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>71500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>71400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>69700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>66900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>65000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>63500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>64100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>62900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2294900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2279100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2302400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2372700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2391700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2642900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2872000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2920100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2544300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2235900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2136900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2137900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1581200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1595100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1587800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1559600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1527400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1568300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1556900</v>
-      </c>
-      <c r="V54" s="3">
-        <v>1521900</v>
       </c>
       <c r="W54" s="3">
         <v>1521900</v>
       </c>
       <c r="X54" s="3">
+        <v>1521900</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1535000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1534900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1499100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,90 +4187,94 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E57" s="3">
         <v>125400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>123900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>138200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>135200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>113700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>118300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>136100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>103500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>88100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>123300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>145900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>132200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>115300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>117900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>131200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>122300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>104700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>106500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>130100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>118400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>98500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>100400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>119000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -4148,23 +4282,23 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>39400</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>39400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>39400</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -4181,8 +4315,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4211,200 +4345,209 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>332300</v>
+      </c>
+      <c r="E59" s="3">
         <v>340200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>354900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>311400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>330000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>335300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>320400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>269200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>308200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>265400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>321600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>296700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>260300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>248400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>262200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>245100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>242300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>246900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>258600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>245700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>257400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>239800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>259200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>234500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>502300</v>
+      </c>
+      <c r="E60" s="3">
         <v>465600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>478900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>449600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>465300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>449000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>438700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>444600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>451100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>353400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>444900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>442700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>392500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>363800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>380100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>376300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>364600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>351600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>365100</v>
-      </c>
-      <c r="V60" s="3">
-        <v>375800</v>
       </c>
       <c r="W60" s="3">
         <v>375800</v>
       </c>
       <c r="X60" s="3">
+        <v>375800</v>
+      </c>
+      <c r="Y60" s="3">
         <v>338300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>359600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>353500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>423200</v>
+      </c>
+      <c r="E61" s="3">
         <v>372900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>327400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>377000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>327300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>575300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>835000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>910000</v>
       </c>
       <c r="K61" s="3">
         <v>910000</v>
       </c>
       <c r="L61" s="3">
+        <v>910000</v>
+      </c>
+      <c r="M61" s="3">
         <v>940000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>460000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>485000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>400000</v>
       </c>
       <c r="P61" s="3">
         <v>400000</v>
@@ -4442,85 +4585,91 @@
       <c r="AA61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>857900</v>
+      </c>
+      <c r="E62" s="3">
         <v>876400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>892100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>916900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>935500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>970500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>989700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>973900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>764800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>550200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>602100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>604400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>184000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>183300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>179100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>183100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>181000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>176400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>176200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>198400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>201600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>194800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>193500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>198500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1783400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1714900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1698300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1743500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1728100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1994800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2263400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2328500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2125900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1843700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1507000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1532100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>976500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>947000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>959200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>959400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>945600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>928000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>941300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>974200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>977400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>933100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>953200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>952000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>511300</v>
+      </c>
+      <c r="E72" s="3">
         <v>564000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>603900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>629000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>663400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>656500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>623100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>609100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>438500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>411400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>607400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>577500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>561700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>600600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>580300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>549800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>532800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>592100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>572300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>510300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>492800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>552800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>533800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>509000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>511500</v>
+      </c>
+      <c r="E76" s="3">
         <v>564200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>604100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>629200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>663600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>648100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>608600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>591600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>418400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>392200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>629900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>605800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>604700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>648000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>628600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>600200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>581800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>640400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>615600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>547700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>544500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>602000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>581700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>547100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44771</v>
+      </c>
+      <c r="E80" s="2">
         <v>44680</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44589</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44498</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44407</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44225</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44134</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43952</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43770</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43679</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43588</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43497</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43406</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43315</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43217</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43126</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43035</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42944</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42853</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42762</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42671</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E81" s="3">
         <v>27500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>37600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>33500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>170700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-161900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>61200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>65000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>50400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>47200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>61400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>48700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>91100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>46400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>53900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>46900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>52700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>48400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E83" s="3">
         <v>25900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>26400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>24800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>24000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>22700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>21600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>22700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>21800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>20500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>84800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>23000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>89400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>91200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>64300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>57000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>73800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-96800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>139200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>44800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>110200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>61700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>131200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>59600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>109600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>72500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>110200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>38300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>117700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>53600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>114600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>34900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-213700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-30500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-33200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-50300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-33100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-29300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-28100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-26800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-26400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>137100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-47400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-75300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-138400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-33100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-36700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-49900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-38200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-32700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-30400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-27900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-26500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-26100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-30300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-30700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-23900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-100</v>
       </c>
       <c r="J96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-31500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-31100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-31300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-32100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-102200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-30200</v>
       </c>
       <c r="Q96" s="3">
         <v>-30200</v>
       </c>
       <c r="R96" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="S96" s="3">
         <v>-30900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-118900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-28800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-28900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-30500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-111800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-27600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-27800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-29600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-24500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-115200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-303400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-260600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-75100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-33500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>413900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-62100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>36800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-102500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-30200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-36000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-119400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-28800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-28900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-48700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-111200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-27600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-27500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-34700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-54900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-46200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-240000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-184300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-28800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>160600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>73700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>290500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>29600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-130700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>67900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-59600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>48600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-40800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-22700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>60600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-25900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-25700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,385 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44953</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44862</v>
+      </c>
+      <c r="F7" s="2">
         <v>44771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44134</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43952</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43770</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43679</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43588</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43497</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43406</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43315</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43217</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43126</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43035</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42944</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42853</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42762</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42671</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>933900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>839500</v>
+      </c>
+      <c r="F8" s="3">
         <v>830400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>790200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>862300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>784900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>784400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>713400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>677200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>646500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>495100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>432500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>846100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>749000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>787100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>739600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>811700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>733500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>810900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>721400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>787800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>710400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>743200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>700400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>772700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>710000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>326600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>281500</v>
+      </c>
+      <c r="F9" s="3">
         <v>273400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>250000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>283600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>242800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>235800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>205400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>225100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>199000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>150800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>137100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>272200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>219800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>226500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>217100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>265200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>222300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>246000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>217700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>261000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>210700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>217400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>205900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>254900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>213100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>607300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>558000</v>
+      </c>
+      <c r="F10" s="3">
         <v>557000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>540200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>578700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>542100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>548600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>508000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>452100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>447500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>344300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>295400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>573900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>529200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>560600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>522500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>546500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>511200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>564900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>503700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>526800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>499700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>525800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>494500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>517800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>496900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,16 +1240,22 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1233,25 +1273,25 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-217700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-65800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>18300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1300</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>1300</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1265,11 +1305,11 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1286,8 +1326,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1412,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1445,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>894900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>815900</v>
+      </c>
+      <c r="F17" s="3">
         <v>797400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>759700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>815600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>742000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>721700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>660900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>662800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>409300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>455000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>511500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>767000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>685700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>707700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>674500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>735000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>671900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>728100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>658100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>711100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>639500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>660000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>628900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>690000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>634200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F18" s="3">
         <v>33000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>30500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>46700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>42900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>62700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>52500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>14400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>237200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>40100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-79000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>79100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>63300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>79400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>65100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>76700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>61600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>82800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>63300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>76700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>70900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>83200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>71500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>82700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>75800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1649,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1616,20 +1684,20 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-132800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5900</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1663,328 +1731,358 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F21" s="3">
         <v>59300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>56400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>72200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>68700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>90300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>79700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>41800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>263500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>70000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-181800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>105200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>86100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>108400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>92500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>102900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>86500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>108200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>87300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>99400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>92500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>105900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>93300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>104000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>96300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F22" s="3">
         <v>2600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>25000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>9600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>10800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>10700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>9900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>3600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>3900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>4100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>4200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>4300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="V22" s="3">
-        <v>3700</v>
       </c>
       <c r="W22" s="3">
         <v>3600</v>
       </c>
       <c r="X22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y22" s="3">
         <v>3600</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>3400</v>
       </c>
       <c r="Z22" s="3">
         <v>3600</v>
       </c>
       <c r="AA22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AC22" s="3">
         <v>3700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F23" s="3">
         <v>30400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>28300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>44500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>40300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>37700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>42900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>226400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>30100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-217200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>72000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>53800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>75500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>61000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>72500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>57300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>78500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>59700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>73000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>67200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>79700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>68100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>79100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>72100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>6800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>6900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>9400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-10400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>55700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-55200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>10600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>10500</v>
       </c>
       <c r="Q24" s="3">
         <v>10600</v>
       </c>
       <c r="R24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="S24" s="3">
+        <v>10600</v>
+      </c>
+      <c r="T24" s="3">
         <v>11800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>10100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>18100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>11000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>11400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>20800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>25800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>21200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>26300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>23700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2161,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F26" s="3">
         <v>33400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>27500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>37600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>33400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>36400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>33500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>170700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>25100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-161900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>61200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>43200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>65000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>50400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>60800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>47200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>60400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>48700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>61600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>46400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>53900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>46900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>52700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>48400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F27" s="3">
         <v>33400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>27500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>37600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>33400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>36400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>33500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>170700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>25100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-161900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>61200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>43200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>65000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>50400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>60800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>47200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>60400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>48700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>61600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>46400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>53900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>46900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>52700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>48400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2338,38 +2460,38 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>1000</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V29" s="3">
-        <v>29500</v>
+        <v>1000</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
+      <c r="X29" s="3">
+        <v>29500</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2505,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2677,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2576,20 +2716,20 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>132800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5900</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2623,88 +2763,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F33" s="3">
         <v>33400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>27500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>37600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>33400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>36400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>33500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>170700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>25100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-161900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>61200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>43200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>65000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>50400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>60800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>47200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>61400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>48700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>91100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>46400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>53900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>46900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>52700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>48400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2935,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F35" s="3">
         <v>33400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>27500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>37600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>33400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>36400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>33500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>170700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>25100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-161900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>61200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>43200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>65000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>50400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>60800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>47200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>61400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>48700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>91100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>46400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>53900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>46900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>52700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>48400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44953</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44862</v>
+      </c>
+      <c r="F38" s="2">
         <v>44771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44134</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43952</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43770</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43679</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43588</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43497</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43406</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43315</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43217</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43126</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43035</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42944</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42853</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42762</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42671</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3180,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F41" s="3">
         <v>45100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>24800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>79700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>125900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>144600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>384600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>568800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>597600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>437000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>363300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>72800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>43200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>36900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>167600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>169600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>101600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>114700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>174300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>168800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>120200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>161000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>183700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>185700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>125100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,328 +3348,358 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>32900</v>
+      </c>
+      <c r="F43" s="3">
         <v>34700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>52000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>44600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>44900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>48500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>54600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>70500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>48900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>49000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>20600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>26700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>33500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>32200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>22200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>17000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>21500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>19500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>21300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>24000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>18100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>22400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>19900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>19700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>18900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>187300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>231000</v>
+      </c>
+      <c r="F44" s="3">
         <v>213200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>192400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>153900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>159600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>138300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>132400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>134800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>155700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>139100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>146300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>157400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>188700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>155000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>152600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>151400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>181600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>156300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>157000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>159600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>191500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>156400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>155500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>155900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>187200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F45" s="3">
         <v>24200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>24900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>28400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>26800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>22200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>22300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>22700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>22600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>17900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>27200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>29200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>28000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>18300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>18800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>21200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>21000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>16300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>17400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>20600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>19500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>19100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>19000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>21000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>20300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>308700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>331200</v>
+      </c>
+      <c r="F46" s="3">
         <v>317300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>294100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>306600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>357200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>353600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>593900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>796800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>824900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>643000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>557400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>286100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>293400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>242400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>361200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>359100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>325700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>306800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>370100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>373000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>349200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>358900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>378100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>382200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>351500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3524,19 +3734,19 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>79500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>83100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>89100</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3547,11 +3757,11 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3568,88 +3778,100 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1875700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1884500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1903100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1905700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1913600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1934000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1954300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1967500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1993600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2015900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1822000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1606800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1642400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1651500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1169000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1166400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1162200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1158000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1149100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1126800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1114200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1105800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1098100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>1093400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>1088600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1084700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3663,37 +3885,37 @@
         <v>25900</v>
       </c>
       <c r="G49" s="3">
+        <v>25900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>25900</v>
+      </c>
+      <c r="I49" s="3">
         <v>26000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>26000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>26100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>25800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>25700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>25700</v>
-      </c>
-      <c r="M49" s="3">
-        <v>6400</v>
-      </c>
-      <c r="N49" s="3">
-        <v>6400</v>
       </c>
       <c r="O49" s="3">
         <v>6400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>6400</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
@@ -3707,11 +3929,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-      <c r="W49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -3728,8 +3950,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4122,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45400</v>
+      </c>
+      <c r="F52" s="3">
         <v>48600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>53400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>56200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>55600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>57800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>55500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>55900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>53700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>53600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>65300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>122500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>103500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>80800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>67500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>66500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>75900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>71500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>71400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>69700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>66900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>65000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>63500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>64100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>62900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4294,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2256700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2287100</v>
+      </c>
+      <c r="F54" s="3">
         <v>2294900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2279100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2302400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2372700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2391700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2642900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2872000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2920100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2544300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2235900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2136900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2137900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1581200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1595100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1587800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1559600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1527400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1568300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1556900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1521900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1521900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1535000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1534900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1499100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,123 +4448,131 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>135500</v>
+      </c>
+      <c r="F57" s="3">
         <v>169900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>125400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>123900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>138200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>135200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>113700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>118300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>136100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>103500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>88100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>123300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>145900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>132200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>115300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>117900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>131200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>122300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>104700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>106500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>130100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>118400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>98500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>100400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>119000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>100</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>39400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>39400</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -4318,11 +4586,11 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4348,212 +4616,230 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>335300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>334000</v>
+      </c>
+      <c r="F59" s="3">
         <v>332300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>340200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>354900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>311400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>330000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>335300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>320400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>269200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>308200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>265400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>321600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>296700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>260300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>248400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>262200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>245100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>242300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>246900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>258600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>245700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>257400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>239800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>259200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>234500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>470800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>469500</v>
+      </c>
+      <c r="F60" s="3">
         <v>502300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>465600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>478900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>449600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>465300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>449000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>438700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>444600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>451100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>353400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>444900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>442700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>392500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>363800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>380100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>376300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>364600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>351600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>365100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>375800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>375800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>338300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>359600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>353500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>454100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>483700</v>
+      </c>
+      <c r="F61" s="3">
         <v>423200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>372900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>327400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>377000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>327300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>575300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>835000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>910000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>910000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>940000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>460000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>485000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>400000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>400000</v>
       </c>
       <c r="R61" s="3">
         <v>400000</v>
@@ -4588,88 +4874,100 @@
       <c r="AB61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>400000</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>845300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>846300</v>
+      </c>
+      <c r="F62" s="3">
         <v>857900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>876400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>892100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>916900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>935500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>970500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>989700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>973900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>764800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>550200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>602100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>604400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>184000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>183300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>179100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>183100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>181000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>176400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>176200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>198400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>201600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>194800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>193500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>198500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5218,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1770200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1799500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1783400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1714900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1698300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1743500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1728100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1994800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2263400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2328500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2125900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1843700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1507000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1532100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>976500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>947000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>959200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>959400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>945600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>928000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>941300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>974200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>977400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>933100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>953200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>952000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5680,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>486300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>487300</v>
+      </c>
+      <c r="F72" s="3">
         <v>511300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>564000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>603900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>629000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>663400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>656500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>623100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>609100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>438500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>411400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>607400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>577500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>561700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>600600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>580300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>549800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>532800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>592100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>572300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>510300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>492800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>552800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>533800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>509000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6024,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>486500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>487500</v>
+      </c>
+      <c r="F76" s="3">
         <v>511500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>564200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>604100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>629200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>663600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>648100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>608600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>591600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>418400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>392200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>629900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>605800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>604700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>648000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>628600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>600200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>581800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>640400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>615600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>547700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>544500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>602000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>581700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>547100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6196,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44953</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44862</v>
+      </c>
+      <c r="F80" s="2">
         <v>44771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44134</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43952</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43770</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43679</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43588</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43497</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43406</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43315</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43217</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43126</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43035</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42944</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42853</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42762</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42671</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F81" s="3">
         <v>33400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>27500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>37600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>33400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>36400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>33500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>170700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>25100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-161900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>61200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>43200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>65000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>50400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>60800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>47200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>61400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>48700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>91100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>46400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>53900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>46900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>52700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>48400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6409,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F83" s="3">
         <v>26300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>25900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>25600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>25800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>27700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>27200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>27400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>26400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>29900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>30000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>29600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>28700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>29000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>27400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>26200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>24800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>25400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>24000</v>
-      </c>
-      <c r="V83" s="3">
-        <v>22700</v>
-      </c>
-      <c r="W83" s="3">
-        <v>21600</v>
       </c>
       <c r="X83" s="3">
         <v>22700</v>
       </c>
       <c r="Y83" s="3">
+        <v>21600</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>22700</v>
+      </c>
+      <c r="AA83" s="3">
         <v>21800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>21300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>20500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6921,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>98900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>84800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>23000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>89400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>91200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>64300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>57000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>73800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-96800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>139200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>44800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>110200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>61700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>131200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>59600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>109600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>72500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>110200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>38300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>117700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>53600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>114600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>34900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7043,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-38400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-29500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-16300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-14100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-26300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-15700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-213700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-25300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-30500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-27900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-33600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-33200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-37100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-50300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-38300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-33100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-30600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-29300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-28100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-26800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-26400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7297,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-38200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-29000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-15700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-15500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-14900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-18000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>137100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-26600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-47400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-75300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-138400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-33400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-33100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-36700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-49900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-38200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-32700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-30400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-27900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-26500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-26100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7419,96 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-29900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-30300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-30700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-23900</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-31500</v>
       </c>
       <c r="L96" s="3">
         <v>-100</v>
       </c>
       <c r="M96" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O96" s="3">
         <v>-31100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-31300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-32100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-102200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-30200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-30200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-30900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-118900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-28800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-28900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-30500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-111800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-27600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-27800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-29600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7759,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-40300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-24500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-115200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-26200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-303400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-260600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-75100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-33500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>7800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>413900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-62100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>36800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-102500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-30300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-30200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-36000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-119400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-28800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-28900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-48700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-111200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-27600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-27500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-34700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7931,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F102" s="3">
         <v>20300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-54900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-46200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-18700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-240000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-184300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-28800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>160600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>73700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>290500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>29600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>6300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-130700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>67900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-13000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-59600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>5500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>48600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-40800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-22700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>60600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-25900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-25700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,397 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45044</v>
+      </c>
+      <c r="E7" s="2">
         <v>44953</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44498</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44134</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43952</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43770</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43679</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43588</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43497</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43406</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43315</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43217</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43126</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43035</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42944</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42853</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42762</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42671</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>832700</v>
+      </c>
+      <c r="E8" s="3">
         <v>933900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>839500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>830400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>790200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>862300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>784900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>784400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>713400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>677200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>646500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>495100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>432500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>846100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>749000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>787100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>739600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>811700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>733500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>810900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>721400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>787800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>710400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>743200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>700400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>772700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>710000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>262200</v>
+      </c>
+      <c r="E9" s="3">
         <v>326600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>281500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>273400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>250000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>283600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>242800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>235800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>205400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>225100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>199000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>150800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>137100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>272200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>219800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>226500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>217100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>265200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>222300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>246000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>217700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>261000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>210700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>217400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>205900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>254900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>213100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>570500</v>
+      </c>
+      <c r="E10" s="3">
         <v>607300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>558000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>557000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>540200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>578700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>542100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>548600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>508000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>452100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>447500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>344300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>295400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>573900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>529200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>560600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>522500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>546500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>511200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>564900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>503700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>526800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>499700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>525800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>494500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>517800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>496900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,19 +1262,22 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>13900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1279,22 +1298,22 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-217700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-65800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18300</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1311,8 +1330,8 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1332,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>815900</v>
+      </c>
+      <c r="E17" s="3">
         <v>894900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>815900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>797400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>759700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>815600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>742000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>721700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>660900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>662800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>409300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>455000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>511500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>767000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>685700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>707700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>674500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>735000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>671900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>728100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>658100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>711100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>639500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>660000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>628900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>690000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>634200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E18" s="3">
         <v>39000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>23600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>33000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>46700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>62700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>52500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>237200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>40100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-79000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>79100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>63300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>79400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>65100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>76700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>61600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>82800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>63300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>76700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>70900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>83200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>71500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>82700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>75800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1690,17 +1723,17 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-132800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5900</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1737,352 +1770,367 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E21" s="3">
         <v>64500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>48400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>59300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>56400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>72200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>90300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>79700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>263500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>70000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-181800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>105200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>86100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>108400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>92500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>102900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>86500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>108200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>87300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>99400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>92500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>105900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>93300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>104000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>96300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="3">
         <v>4400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2200</v>
       </c>
       <c r="H22" s="3">
         <v>2200</v>
       </c>
       <c r="I22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J22" s="3">
         <v>2600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>9900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>4300</v>
       </c>
       <c r="V22" s="3">
         <v>4300</v>
       </c>
       <c r="W22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X22" s="3">
         <v>3600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3700</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>3600</v>
       </c>
       <c r="Z22" s="3">
         <v>3600</v>
       </c>
       <c r="AA22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AB22" s="3">
         <v>3400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>3600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E23" s="3">
         <v>34600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>40300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>37700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>42900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>226400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>30100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-217200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>72000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>53800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>75500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>61000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>72500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>57300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>78500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>59700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>73000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>67200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>79700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>68100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>79100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>72100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-10400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-55200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>20800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>25800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>21200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>26300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>23700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E26" s="3">
         <v>30500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>17100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>33400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>36400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>170700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-161900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>61200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>43200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>65000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>50400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>60800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>47200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>60400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>48700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>61600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>46400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>53900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>46900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>52700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>48400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E27" s="3">
         <v>30500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>17100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>33400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>33500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>170700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-161900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>61200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>43200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>65000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>50400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>60800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>47200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>60400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>48700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>61600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>46400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>53900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>46900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>52700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>48400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2466,17 +2526,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2484,17 +2544,17 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>1000</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>29500</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2511,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2722,17 +2791,17 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>132800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5900</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2769,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E33" s="3">
         <v>30500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>17100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>33400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>36400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>33500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>170700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-161900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>61200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>65000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>50400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>60800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>47200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>61400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>48700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>91100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>46400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>53900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>46900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>52700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>48400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E35" s="3">
         <v>30500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>17100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>33400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>36400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>33500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>170700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-161900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>61200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>65000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>50400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>60800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>47200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>61400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>48700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>91100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>46400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>53900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>46900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>52700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>48400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45044</v>
+      </c>
+      <c r="E38" s="2">
         <v>44953</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44498</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44134</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43952</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43770</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43679</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43588</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43497</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43406</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43315</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43217</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43126</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43035</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42944</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42853</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42762</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42671</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E41" s="3">
         <v>49400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>79700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>125900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>144600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>384600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>568800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>597600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>437000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>363300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>72800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>43200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>167600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>169600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>101600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>114700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>174300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>168800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>120200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>161000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>183700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>185700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>125100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,352 +3443,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E43" s="3">
         <v>36500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>32900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>34700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>54600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>70500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>48900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>49000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>26700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>33500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>32200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>22200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>17000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>21500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>19500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>21300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>24000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>18100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>22400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>19900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>19700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>18900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>184800</v>
+      </c>
+      <c r="E44" s="3">
         <v>187300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>231000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>213200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>192400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>153900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>159600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>138300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>132400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>134800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>155700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>139100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>146300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>157400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>188700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>155000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>152600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>151400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>181600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>156300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>157000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>159600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>191500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>156400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>155500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>155900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>187200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E45" s="3">
         <v>35500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>17400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>20600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>19000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>21000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>20300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E46" s="3">
         <v>308700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>331200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>317300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>294100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>306600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>357200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>353600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>593900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>796800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>824900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>643000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>557400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>286100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>293400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>242400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>361200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>359100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>325700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>306800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>370100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>373000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>349200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>358900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>378100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>382200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>351500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3740,16 +3844,16 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>79500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>83100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>89100</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -3763,8 +3867,8 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3784,99 +3888,105 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1867000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1875700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1884500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1903100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1905700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1913600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1934000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1954300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1967500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1993600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2015900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1822000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1606800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1642400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1651500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1169000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1166400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1162200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1158000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1149100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1126800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1114200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1105800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1098100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1093400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1088600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1084700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>25900</v>
+        <v>26800</v>
       </c>
       <c r="E49" s="3">
         <v>25900</v>
@@ -3891,25 +4001,25 @@
         <v>25900</v>
       </c>
       <c r="I49" s="3">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="J49" s="3">
         <v>26000</v>
       </c>
       <c r="K49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="L49" s="3">
         <v>26100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>25800</v>
-      </c>
-      <c r="M49" s="3">
-        <v>25700</v>
       </c>
       <c r="N49" s="3">
         <v>25700</v>
       </c>
       <c r="O49" s="3">
-        <v>6400</v>
+        <v>25700</v>
       </c>
       <c r="P49" s="3">
         <v>6400</v>
@@ -3917,8 +4027,8 @@
       <c r="Q49" s="3">
         <v>6400</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="R49" s="3">
+        <v>6400</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -3935,8 +4045,8 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="X49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3956,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E52" s="3">
         <v>46400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>45400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>48600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>53400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>56200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>55600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>57800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>55900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>53600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>122500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>103500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>80800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>67500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>66500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>75900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>71500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>71400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>69700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>66900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>65000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>63500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>64100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>62900</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2213500</v>
+      </c>
+      <c r="E54" s="3">
         <v>2256700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2287100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2294900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2279100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2302400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2372700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2391700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2642900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2872000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2920100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2544300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2235900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2136900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2137900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1581200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1595100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1587800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1559600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1527400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1568300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1556900</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>1521900</v>
       </c>
       <c r="Z54" s="3">
         <v>1521900</v>
       </c>
       <c r="AA54" s="3">
+        <v>1521900</v>
+      </c>
+      <c r="AB54" s="3">
         <v>1535000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1534900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1499100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>135500</v>
+        <v>132000</v>
       </c>
       <c r="E57" s="3">
         <v>135500</v>
       </c>
       <c r="F57" s="3">
+        <v>135500</v>
+      </c>
+      <c r="G57" s="3">
         <v>169900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>125400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>123900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>138200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>135200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>113700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>118300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>136100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>103500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>88100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>123300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>145900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>132200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>115300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>117900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>131200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>122300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>104700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>106500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>130100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>118400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>98500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>100400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>119000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4547,11 +4680,11 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -4559,23 +4692,23 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>39400</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>39400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>39400</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -4592,8 +4725,8 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4622,227 +4755,236 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>317200</v>
+      </c>
+      <c r="E59" s="3">
         <v>335300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>334000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>332300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>340200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>354900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>311400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>330000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>335300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>320400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>269200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>308200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>265400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>321600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>296700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>260300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>248400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>262200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>245100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>242300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>246900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>258600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>245700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>257400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>239800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>259200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>234500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>449200</v>
+      </c>
+      <c r="E60" s="3">
         <v>470800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>469500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>502300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>465600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>478900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>449600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>465300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>449000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>438700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>444600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>451100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>353400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>444900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>442700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>392500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>363800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>380100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>376300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>364600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>351600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>365100</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>375800</v>
       </c>
       <c r="Z60" s="3">
         <v>375800</v>
       </c>
       <c r="AA60" s="3">
+        <v>375800</v>
+      </c>
+      <c r="AB60" s="3">
         <v>338300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>359600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>353500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>444500</v>
+      </c>
+      <c r="E61" s="3">
         <v>454100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>483700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>423200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>372900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>327400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>377000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>327300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>575300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>835000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>910000</v>
       </c>
       <c r="N61" s="3">
         <v>910000</v>
       </c>
       <c r="O61" s="3">
+        <v>910000</v>
+      </c>
+      <c r="P61" s="3">
         <v>940000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>460000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>485000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>400000</v>
       </c>
       <c r="S61" s="3">
         <v>400000</v>
@@ -4880,94 +5022,100 @@
       <c r="AD61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>845800</v>
+      </c>
+      <c r="E62" s="3">
         <v>845300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>846300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>857900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>876400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>892100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>916900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>935500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>970500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>989700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>973900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>764800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>550200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>602100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>604400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>184000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>183300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>179100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>183100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>181000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>176400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>176200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>198400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>201600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>194800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>193500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>198500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1739600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1770200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1799500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1783400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1714900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1698300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1743500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1728100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1994800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2263400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2328500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2125900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1843700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1507000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1532100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>976500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>947000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>959200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>959400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>945600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>928000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>941300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>974200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>977400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>933100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>953200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>952000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>471200</v>
+      </c>
+      <c r="E72" s="3">
         <v>486300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>487300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>511300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>564000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>603900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>629000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>663400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>656500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>623100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>609100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>438500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>411400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>607400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>577500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>561700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>600600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>580300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>549800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>532800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>592100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>572300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>510300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>492800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>552800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>533800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>509000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>473900</v>
+      </c>
+      <c r="E76" s="3">
         <v>486500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>487500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>511500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>564200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>604100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>629200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>663600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>648100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>608600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>591600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>418400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>392200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>629900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>605800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>604700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>648000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>628600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>600200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>581800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>640400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>615600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>547700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>544500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>602000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>581700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>547100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45044</v>
+      </c>
+      <c r="E80" s="2">
         <v>44953</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44498</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44134</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43952</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43770</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43679</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43588</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43497</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43406</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43315</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43217</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43126</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43035</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42944</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42853</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42762</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42671</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E81" s="3">
         <v>30500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>17100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>33400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>36400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>33500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>170700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-161900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>61200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>65000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>50400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>60800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>47200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>61400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>48700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>91100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>46400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>53900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>46900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>52700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>48400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E83" s="3">
         <v>25600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>24800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>26300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>29900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>26200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>24800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>25400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>24000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>22700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>21600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>22700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>21800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>21300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>20500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E89" s="3">
         <v>101400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>98900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>84800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>23000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>89400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>91200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>64300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>57000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>73800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-96800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>139200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>44800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>110200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>61700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>131200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>59600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>109600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>72500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>110200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>38300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>117700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>53600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>114600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>34900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-213700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-33600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-33200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-37100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-50300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-38300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-33100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-30600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-29300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-28100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-26800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-26400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>137100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-47400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-75300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-138400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-33400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-33100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-36700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-49900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-38200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-32700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-30400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-29200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-27900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-26500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-26100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-29000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-29500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-29900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-30300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-30700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-23900</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-100</v>
       </c>
       <c r="M96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-31500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-31100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-31300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-32100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-102200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-30200</v>
       </c>
       <c r="T96" s="3">
         <v>-30200</v>
       </c>
       <c r="U96" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="V96" s="3">
         <v>-30900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-118900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-28800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-28900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-30500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-111800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-27600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-27800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-29600</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-64000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-40300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-24500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-115200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-26200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-303400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-260600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-75100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-33500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>413900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-62100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>36800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-102500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-30300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-30200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-36000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-119400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-28800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-28900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-48700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-111200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-27600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-27500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-34700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E102" s="3">
         <v>10700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-54900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-46200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-240000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-184300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-28800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>160600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>73700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>290500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>29600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-130700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>67900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-59600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>48600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-40800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-22700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>60600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-25900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-25700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CBRL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>CBRL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45135</v>
+      </c>
+      <c r="E7" s="2">
         <v>45044</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44953</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44589</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44498</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44407</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44225</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44134</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43952</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43770</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43679</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43588</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43497</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43406</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43315</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43217</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43126</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43035</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42944</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42853</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42762</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42671</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>836700</v>
+      </c>
+      <c r="E8" s="3">
         <v>832700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>933900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>839500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>830400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>790200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>862300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>784900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>784400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>713400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>677200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>646500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>495100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>432500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>846100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>749000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>787100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>739600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>811700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>733500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>810900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>721400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>787800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>710400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>743200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>700400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>772700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>710000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>745600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>257300</v>
+      </c>
+      <c r="E9" s="3">
         <v>262200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>326600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>281500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>273400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>250000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>283600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>242800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>235800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>205400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>225100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>199000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>150800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>137100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>272200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>219800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>226500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>217100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>265200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>222300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>246000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>217700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>261000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>210700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>217400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>205900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>254900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>213100</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>227900</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>579400</v>
+      </c>
+      <c r="E10" s="3">
         <v>570500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>607300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>558000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>557000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>540200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>578700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>542100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>548600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>508000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>452100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>447500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>344300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>295400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>573900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>529200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>560600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>522500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>546500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>511200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>564900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>503700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>526800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>499700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>525800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>494500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>517800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>496900</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>517700</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,22 +1282,25 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>13900</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1301,22 +1321,22 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-217700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-65800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18300</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1300</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1333,8 +1353,8 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>795500</v>
+      </c>
+      <c r="E17" s="3">
         <v>815900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>894900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>815900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>797400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>759700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>815600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>742000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>721700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>660900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>662800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>409300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>455000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>511500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>767000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>685700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>707700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>674500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>735000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>671900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>728100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>658100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>711100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>639500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>660000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>628900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>690000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>634200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>668000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E18" s="3">
         <v>16800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>39000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>23600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>33000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>46700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>62700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>52500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>237200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>40100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-79000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>79100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>63300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>79400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>65100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>76700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>61600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>82800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>63300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>76700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>70900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>83200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>71500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>82700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>75800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1726,17 +1760,17 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-132800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5900</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1773,97 +1807,103 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E21" s="3">
         <v>43200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>64500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>48400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>59300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>56400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>72200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>68700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>90300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>79700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>263500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>70000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-181800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>105200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>86100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>108400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>92500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>102900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>86500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>108200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>87300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>99400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>92500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>105900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>93300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>104000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>96300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>98400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1871,266 +1911,275 @@
         <v>4500</v>
       </c>
       <c r="E22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2200</v>
       </c>
       <c r="I22" s="3">
         <v>2200</v>
       </c>
       <c r="J22" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>10700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>4300</v>
       </c>
       <c r="W22" s="3">
         <v>4300</v>
       </c>
       <c r="X22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y22" s="3">
         <v>3600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>3700</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>3600</v>
       </c>
       <c r="AA22" s="3">
         <v>3600</v>
       </c>
       <c r="AB22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="AC22" s="3">
         <v>3400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>3600</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>3700</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E23" s="3">
         <v>12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>30400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>40300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>37700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>226400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-217200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>72000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>53800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>75500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>61000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>72500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>57300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>78500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>59700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>73000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>67200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>79700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>68100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>79100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>72100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>74100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-10400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>18100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>11400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>20800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>25800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>21200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>26300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>23700</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>23100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E26" s="3">
         <v>14000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>30500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>17100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>33400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>33400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>33500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>170700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-161900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>61200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>43200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>65000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>50400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>60800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>47200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>60400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>48700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>61600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>46400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>53900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>46900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>52700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>48400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E27" s="3">
         <v>14000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>30500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>17100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>33400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>33400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>33500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>170700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-161900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>61200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>43200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>65000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>50400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>60800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>47200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>60400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>48700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>61600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>46400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>53900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>46900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>52700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>48400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,17 +2590,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2547,17 +2608,17 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>1000</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>29500</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2794,17 +2864,17 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>132800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5900</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E33" s="3">
         <v>14000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>30500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>17100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>33400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>33400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>33500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>170700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-161900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>61200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>65000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>50400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>60800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>47200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>61400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>48700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>91100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>46400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>53900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>46900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>52700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>48400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E35" s="3">
         <v>14000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>30500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>17100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>33400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>33400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>33500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>170700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-161900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>61200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>65000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>50400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>60800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>47200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>61400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>48700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>91100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>46400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>53900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>46900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>52700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>48400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45135</v>
+      </c>
+      <c r="E38" s="2">
         <v>45044</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44953</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44589</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44498</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44407</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44225</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44134</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43952</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43770</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43679</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43588</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43497</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43406</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43315</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43217</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43126</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43035</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42944</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42853</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42762</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42671</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E41" s="3">
         <v>22500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>38700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>79700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>125900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>384600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>568800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>597600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>437000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>363300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>72800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>43200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>36900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>167600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>169600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>101600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>114700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>174300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>168800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>120200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>161000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>183700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>185700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>125100</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,364 +3536,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E43" s="3">
         <v>32100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>36500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>34700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>52000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>44600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>44900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>54600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>70500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>48900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>49000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>26700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>33500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>32200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>22200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>17000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>21500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>21300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>24000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>18100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>22400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>19900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>19700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>18900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>35600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>189400</v>
+      </c>
+      <c r="E44" s="3">
         <v>184800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>187300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>231000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>213200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>192400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>153900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>159600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>138300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>132400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>134800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>155700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>139100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>146300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>157400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>188700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>155000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>152600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>151400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>181600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>156300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>157000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>159600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>191500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>156400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>155500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>155900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>187200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>152300</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E45" s="3">
         <v>33700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>29200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>16300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>17400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>20600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>19100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>19000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>21000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>20300</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>16900</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>282300</v>
+      </c>
+      <c r="E46" s="3">
         <v>273000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>308700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>331200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>317300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>294100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>306600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>357200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>353600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>593900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>796800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>824900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>643000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>557400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>286100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>293400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>242400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>361200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>359100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>325700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>306800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>370100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>373000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>349200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>358900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>378100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>382200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>351500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3847,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>79500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>83100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>89100</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3870,8 +3975,8 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3891,105 +3996,111 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1861300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1867000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1875700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1884500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1903100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1905700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1913600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1934000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1954300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1967500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1993600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2015900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1822000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1606800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1642400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1651500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1169000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1166400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1162200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1158000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1149100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1126800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1114200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1105800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1098100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1093400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1088600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1084700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1080200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E49" s="3">
         <v>26800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>25900</v>
       </c>
       <c r="F49" s="3">
         <v>25900</v>
@@ -4004,25 +4115,25 @@
         <v>25900</v>
       </c>
       <c r="J49" s="3">
-        <v>26000</v>
+        <v>25900</v>
       </c>
       <c r="K49" s="3">
         <v>26000</v>
       </c>
       <c r="L49" s="3">
+        <v>26000</v>
+      </c>
+      <c r="M49" s="3">
         <v>26100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>25800</v>
-      </c>
-      <c r="N49" s="3">
-        <v>25700</v>
       </c>
       <c r="O49" s="3">
         <v>25700</v>
       </c>
       <c r="P49" s="3">
-        <v>6400</v>
+        <v>25700</v>
       </c>
       <c r="Q49" s="3">
         <v>6400</v>
@@ -4030,8 +4141,8 @@
       <c r="R49" s="3">
         <v>6400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>6400</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -4048,8 +4159,8 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E52" s="3">
         <v>46700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>46400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>45400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>48600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>53400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>56200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>57800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>55500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>55900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>53700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>53600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>122500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>103500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>80800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>67500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>66500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>75900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>71500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>71400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>69700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>66900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>65000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>63500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>64100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>62900</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>61700</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2218100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2213500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2256700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2287100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2294900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2279100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2302400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2372700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2391700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2642900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2872000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2920100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2544300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2235900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2136900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2137900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1581200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1595100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1587800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1559600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1527400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1568300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1556900</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>1521900</v>
       </c>
       <c r="AA54" s="3">
         <v>1521900</v>
       </c>
       <c r="AB54" s="3">
+        <v>1521900</v>
+      </c>
+      <c r="AC54" s="3">
         <v>1535000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1534900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1499100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1497700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,102 +4710,106 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E57" s="3">
         <v>132000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>135500</v>
       </c>
       <c r="F57" s="3">
         <v>135500</v>
       </c>
       <c r="G57" s="3">
+        <v>135500</v>
+      </c>
+      <c r="H57" s="3">
         <v>169900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>125400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>123900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>138200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>135200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>113700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>118300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>136100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>103500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>88100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>123300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>145900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>132200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>115300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>117900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>131200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>122300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>104700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>106500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>130100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>118400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>98500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>100400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>119000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>132500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -4683,11 +4817,11 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -4695,23 +4829,23 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>39400</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>39400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>39400</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -4728,8 +4862,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4758,236 +4892,245 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>323400</v>
+      </c>
+      <c r="E59" s="3">
         <v>317200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>335300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>334000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>332300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>340200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>354900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>311400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>330000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>335300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>320400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>269200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>308200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>265400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>321600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>296700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>260300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>248400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>262200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>245100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>242300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>246900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>258600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>245700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>257400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>239800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>259200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>234500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>236300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>489000</v>
+      </c>
+      <c r="E60" s="3">
         <v>449200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>470800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>469500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>502300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>465600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>478900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>449600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>465300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>449000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>438700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>444600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>451100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>353400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>444900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>442700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>392500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>363800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>380100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>376300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>364600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>351600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>365100</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>375800</v>
       </c>
       <c r="AA60" s="3">
         <v>375800</v>
       </c>
       <c r="AB60" s="3">
+        <v>375800</v>
+      </c>
+      <c r="AC60" s="3">
         <v>338300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>359600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>353500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>414900</v>
+      </c>
+      <c r="E61" s="3">
         <v>444500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>454100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>483700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>423200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>372900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>327400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>377000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>327300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>575300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>835000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>910000</v>
       </c>
       <c r="O61" s="3">
         <v>910000</v>
       </c>
       <c r="P61" s="3">
+        <v>910000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>940000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>460000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>485000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>400000</v>
       </c>
       <c r="T61" s="3">
         <v>400000</v>
@@ -5025,97 +5168,103 @@
       <c r="AE61" s="3">
         <v>400000</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>830400</v>
+      </c>
+      <c r="E62" s="3">
         <v>845800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>845300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>846300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>857900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>876400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>892100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>916900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>935500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>970500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>989700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>973900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>764800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>550200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>602100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>604400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>184000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>183300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>179100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>183100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>181000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>176400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>176200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>198400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>201600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>194800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>193500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>198500</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>202400</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1734300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1739600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1770200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1799500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1783400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1714900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1698300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1743500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1728100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1994800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2263400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2328500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2125900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1843700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1507000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1532100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>976500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>947000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>959200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>959400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>945600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>928000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>941300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>974200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>977400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>933100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>953200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>952000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>971200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>479700</v>
+      </c>
+      <c r="E72" s="3">
         <v>471200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>486300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>487300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>511300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>564000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>603900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>629000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>663400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>656500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>623100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>609100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>438500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>411400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>607400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>577500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>561700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>600600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>580300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>549800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>532800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>592100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>572300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>510300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>492800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>552800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>533800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>509000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>488500</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>483800</v>
+      </c>
+      <c r="E76" s="3">
         <v>473900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>486500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>487500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>511500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>564200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>604100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>629200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>663600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>648100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>608600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>591600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>418400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>392200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>629900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>605800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>604700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>648000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>628600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>600200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>581800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>640400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>615600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>547700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>544500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>602000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>581700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>547100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>526400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45135</v>
+      </c>
+      <c r="E80" s="2">
         <v>45044</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44953</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44589</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44498</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44407</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44225</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44134</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43952</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43770</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43679</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43588</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43497</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43406</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43315</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43217</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43126</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43035</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42944</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42853</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42762</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42671</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42580</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E81" s="3">
         <v>14000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>30500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>17100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>33400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>33400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>33500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>170700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-161900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>61200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>65000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>50400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>60800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>47200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>61400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>48700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>91100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>46400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>53900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>46900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>52700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>48400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>51000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E83" s="3">
         <v>26400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>24800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>26300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>26400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>26200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>24800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>25400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>24000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>22700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>21600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>22700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>21800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>21300</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>20500</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>20700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>99200</v>
+      </c>
+      <c r="E89" s="3">
         <v>50400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>101400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>98900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>84800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>23000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>89400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>91200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>64300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>57000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>73800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-96800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>139200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>44800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>110200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>61700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>131200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>59600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>109600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>72500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>110200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>38300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>117700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>53600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>114600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>34900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>122000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-38700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-213700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-33600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-33200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-37100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-50300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-38300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-33100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-30600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-29300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-28100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-26800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-26400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-44000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-21500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>137100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-47400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-75300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-138400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-33400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-33100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-36700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-49900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-38200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-32700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-30400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-29200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-27900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-26500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-26100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-43700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-28900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-29000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-29500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-29900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-30300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-30700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-23900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-100</v>
       </c>
       <c r="N96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O96" s="3">
         <v>-31500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-31300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-32100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-102200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-30200</v>
       </c>
       <c r="U96" s="3">
         <v>-30200</v>
       </c>
       <c r="V96" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="W96" s="3">
         <v>-30900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-118900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-28800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-28900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-30500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-111800</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-27600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-27800</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-29600</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-104200</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-58900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-38900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-64000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-40300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-24500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-115200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-26200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-303400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-260600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-75100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-33500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>413900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-62100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>36800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-102500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-30300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-30200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-36000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-119400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-28800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-28900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-48700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-111200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-27600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-27500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-34700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-104100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>10700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-54900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-46200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-18700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-240000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-184300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-28800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>160600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>73700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>290500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>29600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-130700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>67900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-13000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-59600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>48600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-40800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-22700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>60600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-25900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-25700</v>
       </c>
     </row>
